--- a/data/Payments.xlsx
+++ b/data/Payments.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gixi_\Ironhack\DAFT_212\module_2\Project_Week_6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0581CA07-32C6-4767-802D-01AD8F83BB72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4B29DC0-B66A-4478-B3BC-9C6A9CC2290D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{EC262E73-C69C-4C2A-8A9A-BDDEF9F428A1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{EC262E73-C69C-4C2A-8A9A-BDDEF9F428A1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$91</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -32,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="851" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="116">
   <si>
     <t>Debtor</t>
   </si>
@@ -91,9 +94,6 @@
     <t>0.02</t>
   </si>
   <si>
-    <t>16-mars-21</t>
-  </si>
-  <si>
     <t>NEW</t>
   </si>
   <si>
@@ -130,9 +130,6 @@
     <t>1000000.00</t>
   </si>
   <si>
-    <t>02-nov-21</t>
-  </si>
-  <si>
     <t>EUR</t>
   </si>
   <si>
@@ -211,9 +208,6 @@
     <t>3326.00</t>
   </si>
   <si>
-    <t>10-janv-22</t>
-  </si>
-  <si>
     <t>REF001DEMO</t>
   </si>
   <si>
@@ -235,9 +229,6 @@
     <t>REFD543105</t>
   </si>
   <si>
-    <t>02-mars-21</t>
-  </si>
-  <si>
     <t>BETA NV.</t>
   </si>
   <si>
@@ -262,9 +253,6 @@
     <t>238.00</t>
   </si>
   <si>
-    <t>15-janv-21</t>
-  </si>
-  <si>
     <t>CANCELLED</t>
   </si>
   <si>
@@ -277,9 +265,6 @@
     <t>6709.00</t>
   </si>
   <si>
-    <t>13-janv-21</t>
-  </si>
-  <si>
     <t>FINVALTRXXX</t>
   </si>
   <si>
@@ -292,9 +277,6 @@
     <t>5188.00</t>
   </si>
   <si>
-    <t>14-janv-21</t>
-  </si>
-  <si>
     <t>TSIBAU44XXX</t>
   </si>
   <si>
@@ -307,18 +289,12 @@
     <t>120.00</t>
   </si>
   <si>
-    <t>05-janv-21</t>
-  </si>
-  <si>
     <t>CROSSSUPPORT SA</t>
   </si>
   <si>
     <t>6720.00</t>
   </si>
   <si>
-    <t>28-janv-21</t>
-  </si>
-  <si>
     <t xml:space="preserve">DELTA INC </t>
   </si>
   <si>
@@ -337,18 +313,12 @@
     <t>2100.00</t>
   </si>
   <si>
-    <t>22-mars-21</t>
-  </si>
-  <si>
     <t>ICRETA NV.</t>
   </si>
   <si>
     <t>800.00</t>
   </si>
   <si>
-    <t>20-nov-20</t>
-  </si>
-  <si>
     <t>IntellectEU NV.</t>
   </si>
   <si>
@@ -361,9 +331,6 @@
     <t>87600.00</t>
   </si>
   <si>
-    <t>21-nov-20</t>
-  </si>
-  <si>
     <t>ISUPPLIER2 PL.</t>
   </si>
   <si>
@@ -376,9 +343,6 @@
     <t>0.04</t>
   </si>
   <si>
-    <t>27-nov-20</t>
-  </si>
-  <si>
     <t xml:space="preserve">QUATRO INC </t>
   </si>
   <si>
@@ -388,9 +352,6 @@
     <t>3100.00</t>
   </si>
   <si>
-    <t>01-mars-21</t>
-  </si>
-  <si>
     <t xml:space="preserve">SIGMA INC </t>
   </si>
   <si>
@@ -415,9 +376,6 @@
     <t>REFD10192</t>
   </si>
   <si>
-    <t>21-janv-21</t>
-  </si>
-  <si>
     <t>ZERO LTD.</t>
   </si>
   <si>
@@ -425,9 +383,6 @@
   </si>
   <si>
     <t>12100.00</t>
-  </si>
-  <si>
-    <t>23-mars-21</t>
   </si>
 </sst>
 </file>
@@ -466,10 +421,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -488,7 +446,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -786,14 +744,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34CF87D3-5296-44C7-898D-811DB0F715A2}">
   <dimension ref="A1:K91"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I77" sqref="I77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="14.33203125" customWidth="1"/>
+    <col min="2" max="2" width="29.44140625" customWidth="1"/>
+    <col min="4" max="4" width="23.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.44140625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="18.77734375" customWidth="1"/>
+    <col min="8" max="8" width="18.109375" customWidth="1"/>
     <col min="9" max="9" width="28.88671875" style="2" customWidth="1"/>
     <col min="10" max="10" width="35.88671875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.33203125" customWidth="1"/>
     <col min="12" max="12" width="43.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -810,7 +775,7 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F1" t="s">
@@ -837,16 +802,16 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>93</v>
       </c>
       <c r="F2" t="s">
         <v>16</v>
@@ -855,16 +820,16 @@
         <v>17</v>
       </c>
       <c r="H2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="2">
+        <v>44155</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0.3833333333333333</v>
+      </c>
+      <c r="K2" t="s">
         <v>19</v>
-      </c>
-      <c r="J2" s="1">
-        <v>0.34375</v>
-      </c>
-      <c r="K2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -872,34 +837,34 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="C3" t="s">
         <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>95</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H3" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="I3" s="2">
-        <v>44272</v>
+        <v>44155</v>
       </c>
       <c r="J3" s="1">
-        <v>0.65625</v>
+        <v>0.47152777777777777</v>
       </c>
       <c r="K3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -907,34 +872,34 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>94</v>
       </c>
       <c r="C4" t="s">
         <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>95</v>
       </c>
       <c r="E4" t="s">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="F4" t="s">
         <v>16</v>
       </c>
       <c r="G4" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="H4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>19</v>
+        <v>49</v>
+      </c>
+      <c r="I4" s="2">
+        <v>44155</v>
       </c>
       <c r="J4" s="1">
-        <v>41548</v>
+        <v>0.88194444444444453</v>
       </c>
       <c r="K4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -942,34 +907,34 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>96</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>97</v>
       </c>
       <c r="F5" t="s">
         <v>16</v>
       </c>
       <c r="G5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H5" t="s">
-        <v>27</v>
-      </c>
-      <c r="I5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="2">
+        <v>44156</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0.47430555555555554</v>
+      </c>
+      <c r="K5" t="s">
         <v>19</v>
-      </c>
-      <c r="J5" s="1">
-        <v>0.53125</v>
-      </c>
-      <c r="K5" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -977,34 +942,34 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>96</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="E6" t="s">
-        <v>26</v>
+        <v>97</v>
       </c>
       <c r="F6" t="s">
         <v>16</v>
       </c>
       <c r="G6" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="H6" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I6" s="2">
-        <v>44273</v>
+        <v>44156</v>
       </c>
       <c r="J6" s="1">
-        <v>0.59375</v>
+        <v>0.59166666666666667</v>
       </c>
       <c r="K6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -1012,34 +977,34 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>92</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="E7" t="s">
-        <v>31</v>
+        <v>93</v>
       </c>
       <c r="F7" t="s">
         <v>16</v>
       </c>
       <c r="G7" t="s">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="H7" t="s">
-        <v>27</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
+      </c>
+      <c r="I7" s="2">
+        <v>44157</v>
       </c>
       <c r="J7" s="1">
-        <v>0.35694444444444445</v>
+        <v>0.71527777777777779</v>
       </c>
       <c r="K7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -1047,34 +1012,34 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>98</v>
       </c>
       <c r="C8" t="s">
         <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>99</v>
       </c>
       <c r="E8" t="s">
-        <v>31</v>
+        <v>100</v>
       </c>
       <c r="F8" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="G8" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="H8" t="s">
-        <v>22</v>
+        <v>101</v>
       </c>
       <c r="I8" s="2">
-        <v>44503</v>
+        <v>44162</v>
       </c>
       <c r="J8" s="1">
-        <v>0.52777777777777779</v>
+        <v>0.40625</v>
       </c>
       <c r="K8" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -1082,34 +1047,34 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>98</v>
       </c>
       <c r="C9" t="s">
         <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>99</v>
       </c>
       <c r="E9" t="s">
-        <v>31</v>
+        <v>100</v>
       </c>
       <c r="F9" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="G9" t="s">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="H9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" s="2">
+        <v>44162</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0.76388888888888884</v>
+      </c>
+      <c r="K9" t="s">
         <v>22</v>
-      </c>
-      <c r="I9" s="2">
-        <v>44503</v>
-      </c>
-      <c r="J9" s="1">
-        <v>0.7319444444444444</v>
-      </c>
-      <c r="K9" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -1117,16 +1082,16 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="C10" t="s">
         <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>82</v>
       </c>
       <c r="E10" t="s">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="F10" t="s">
         <v>16</v>
@@ -1135,16 +1100,16 @@
         <v>17</v>
       </c>
       <c r="H10" t="s">
-        <v>18</v>
-      </c>
-      <c r="I10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" s="2">
+        <v>44201</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0.5083333333333333</v>
+      </c>
+      <c r="K10" t="s">
         <v>19</v>
-      </c>
-      <c r="J10" s="1">
-        <v>0.38611111111111113</v>
-      </c>
-      <c r="K10" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -1152,34 +1117,34 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="C11" t="s">
         <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" t="s">
-        <v>37</v>
+        <v>82</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>83</v>
       </c>
       <c r="F11" t="s">
         <v>16</v>
       </c>
       <c r="G11" t="s">
-        <v>34</v>
+        <v>76</v>
       </c>
       <c r="H11" t="s">
+        <v>26</v>
+      </c>
+      <c r="I11" s="2">
+        <v>44201</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0.5131944444444444</v>
+      </c>
+      <c r="K11" t="s">
         <v>27</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J11" s="1">
-        <v>0.52222222222222225</v>
-      </c>
-      <c r="K11" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -1187,34 +1152,34 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="C12" t="s">
         <v>13</v>
       </c>
       <c r="D12" t="s">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="E12" t="s">
+        <v>83</v>
+      </c>
+      <c r="F12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" t="s">
+        <v>80</v>
+      </c>
+      <c r="H12" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" s="2">
+        <v>44201</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0.72222222222222221</v>
+      </c>
+      <c r="K12" t="s">
         <v>40</v>
-      </c>
-      <c r="F12" t="s">
-        <v>16</v>
-      </c>
-      <c r="G12" t="s">
-        <v>17</v>
-      </c>
-      <c r="H12" t="s">
-        <v>18</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J12" s="1">
-        <v>0.42430555555555555</v>
-      </c>
-      <c r="K12" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -1222,34 +1187,34 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="C13" t="s">
         <v>13</v>
       </c>
       <c r="D13" t="s">
-        <v>39</v>
+        <v>74</v>
       </c>
       <c r="E13" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="F13" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="G13" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="H13" t="s">
-        <v>41</v>
-      </c>
-      <c r="I13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I13" s="2">
+        <v>44209</v>
+      </c>
+      <c r="J13" s="1">
+        <v>0.60555555555555551</v>
+      </c>
+      <c r="K13" t="s">
         <v>19</v>
-      </c>
-      <c r="J13" s="1">
-        <v>0.7319444444444444</v>
-      </c>
-      <c r="K13" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -1257,34 +1222,34 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C14" t="s">
         <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="F14" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="G14" t="s">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="H14" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="I14" s="2">
-        <v>44275</v>
+        <v>44209</v>
       </c>
       <c r="J14" s="1">
-        <v>0.55138888888888882</v>
+        <v>0.60555555555555551</v>
       </c>
       <c r="K14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -1292,34 +1257,34 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="C15" t="s">
         <v>13</v>
       </c>
       <c r="D15" t="s">
-        <v>44</v>
+        <v>87</v>
       </c>
       <c r="E15" t="s">
-        <v>45</v>
+        <v>88</v>
       </c>
       <c r="F15" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="G15" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I15" s="2">
-        <v>44276</v>
+        <v>44209</v>
       </c>
       <c r="J15" s="1">
-        <v>0.52361111111111114</v>
+        <v>0.47430555555555554</v>
       </c>
       <c r="K15" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -1327,34 +1292,34 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="C16" t="s">
         <v>13</v>
       </c>
       <c r="D16" t="s">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="E16" t="s">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="F16" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="G16" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="H16" t="s">
-        <v>18</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>49</v>
+        <v>26</v>
+      </c>
+      <c r="I16" s="2">
+        <v>44209</v>
       </c>
       <c r="J16" s="1">
-        <v>0.43263888888888885</v>
+        <v>0.53125</v>
       </c>
       <c r="K16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
@@ -1362,34 +1327,34 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="C17" t="s">
         <v>13</v>
       </c>
       <c r="D17" t="s">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="E17" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="F17" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="G17" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="H17" t="s">
-        <v>27</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>49</v>
+        <v>26</v>
+      </c>
+      <c r="I17" s="2">
+        <v>44210</v>
       </c>
       <c r="J17" s="1">
-        <v>0.48819444444444443</v>
+        <v>0.65486111111111112</v>
       </c>
       <c r="K17" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
@@ -1397,34 +1362,34 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="C18" t="s">
         <v>13</v>
       </c>
       <c r="D18" t="s">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="E18" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="F18" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="G18" t="s">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="H18" t="s">
-        <v>51</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>49</v>
+        <v>26</v>
+      </c>
+      <c r="I18" s="2">
+        <v>44210</v>
       </c>
       <c r="J18" s="1">
-        <v>0.70972222222222225</v>
+        <v>0.65486111111111112</v>
       </c>
       <c r="K18" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
@@ -1432,16 +1397,16 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="C19" t="s">
         <v>13</v>
       </c>
       <c r="D19" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="E19" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="F19" t="s">
         <v>16</v>
@@ -1450,16 +1415,16 @@
         <v>17</v>
       </c>
       <c r="H19" t="s">
-        <v>27</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
+      </c>
+      <c r="I19" s="2">
+        <v>44211</v>
       </c>
       <c r="J19" s="1">
-        <v>0.52986111111111112</v>
+        <v>0.75694444444444453</v>
       </c>
       <c r="K19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
@@ -1467,16 +1432,16 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="C20" t="s">
         <v>13</v>
       </c>
       <c r="D20" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="E20" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="F20" t="s">
         <v>16</v>
@@ -1485,16 +1450,16 @@
         <v>17</v>
       </c>
       <c r="H20" t="s">
-        <v>18</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
+      </c>
+      <c r="I20" s="2">
+        <v>44211</v>
       </c>
       <c r="J20" s="1">
-        <v>0.65347222222222223</v>
+        <v>0.52986111111111112</v>
       </c>
       <c r="K20" t="s">
-        <v>28</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
@@ -1502,34 +1467,34 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>52</v>
+        <v>107</v>
       </c>
       <c r="C21" t="s">
         <v>13</v>
       </c>
       <c r="D21" t="s">
-        <v>53</v>
+        <v>108</v>
       </c>
       <c r="E21" t="s">
-        <v>54</v>
+        <v>109</v>
       </c>
       <c r="F21" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="G21" t="s">
         <v>17</v>
       </c>
       <c r="H21" t="s">
-        <v>27</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>55</v>
+        <v>110</v>
+      </c>
+      <c r="I21" s="2">
+        <v>44211</v>
       </c>
       <c r="J21" s="1">
-        <v>0.75694444444444453</v>
+        <v>0.35694444444444445</v>
       </c>
       <c r="K21" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
@@ -1537,34 +1502,34 @@
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>56</v>
+        <v>107</v>
       </c>
       <c r="C22" t="s">
         <v>13</v>
       </c>
       <c r="D22" t="s">
-        <v>57</v>
+        <v>108</v>
       </c>
       <c r="E22" t="s">
-        <v>58</v>
+        <v>109</v>
       </c>
       <c r="F22" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="G22" t="s">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="H22" t="s">
-        <v>27</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>59</v>
+        <v>26</v>
+      </c>
+      <c r="I22" s="2">
+        <v>44211</v>
       </c>
       <c r="J22" s="1">
-        <v>0.52986111111111112</v>
+        <v>0.52708333333333335</v>
       </c>
       <c r="K22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
@@ -1572,34 +1537,34 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>56</v>
+        <v>111</v>
       </c>
       <c r="C23" t="s">
         <v>13</v>
       </c>
       <c r="D23" t="s">
-        <v>57</v>
+        <v>112</v>
       </c>
       <c r="E23" t="s">
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="F23" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="G23" t="s">
         <v>17</v>
       </c>
       <c r="H23" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I23" s="2">
-        <v>44572</v>
+        <v>44217</v>
       </c>
       <c r="J23" s="1">
-        <v>0.60555555555555551</v>
+        <v>0.41250000000000003</v>
       </c>
       <c r="K23" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
@@ -1607,34 +1572,34 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="C24" t="s">
         <v>13</v>
       </c>
       <c r="D24" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="E24" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="F24" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="G24" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H24" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I24" s="2">
-        <v>44572</v>
+        <v>44217</v>
       </c>
       <c r="J24" s="1">
-        <v>0.76458333333333339</v>
+        <v>0.40625</v>
       </c>
       <c r="K24" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
@@ -1642,34 +1607,34 @@
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>56</v>
+        <v>111</v>
       </c>
       <c r="C25" t="s">
         <v>13</v>
       </c>
       <c r="D25" t="s">
-        <v>60</v>
+        <v>112</v>
       </c>
       <c r="E25" t="s">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="F25" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="G25" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H25" t="s">
-        <v>18</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>62</v>
+        <v>49</v>
+      </c>
+      <c r="I25" s="2">
+        <v>44218</v>
       </c>
       <c r="J25" s="1">
-        <v>0.65486111111111112</v>
+        <v>0.73055555555555562</v>
       </c>
       <c r="K25" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
@@ -1677,34 +1642,34 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="C26" t="s">
         <v>13</v>
       </c>
       <c r="D26" t="s">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="E26" t="s">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="F26" t="s">
         <v>16</v>
       </c>
       <c r="G26" t="s">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="H26" t="s">
-        <v>27</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>64</v>
+        <v>21</v>
+      </c>
+      <c r="I26" s="2">
+        <v>44223</v>
       </c>
       <c r="J26" s="1">
-        <v>0.72291666666666676</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="K26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
@@ -1712,34 +1677,34 @@
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="C27" t="s">
         <v>13</v>
       </c>
       <c r="D27" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="E27" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="F27" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="G27" t="s">
         <v>17</v>
       </c>
       <c r="H27" t="s">
-        <v>51</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>67</v>
+        <v>18</v>
+      </c>
+      <c r="I27" s="2">
+        <v>44224</v>
       </c>
       <c r="J27" s="1">
-        <v>0.5083333333333333</v>
+        <v>0.55763888888888891</v>
       </c>
       <c r="K27" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
@@ -1747,34 +1712,34 @@
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="C28" t="s">
         <v>13</v>
       </c>
       <c r="D28" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="E28" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="F28" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="G28" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H28" t="s">
-        <v>27</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>67</v>
+        <v>18</v>
+      </c>
+      <c r="I28" s="2">
+        <v>44224</v>
       </c>
       <c r="J28" s="1">
-        <v>0.57152777777777775</v>
+        <v>0.79861111111111116</v>
       </c>
       <c r="K28" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
@@ -1782,34 +1747,34 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="C29" t="s">
         <v>13</v>
       </c>
       <c r="D29" t="s">
-        <v>66</v>
-      </c>
-      <c r="E29" t="s">
-        <v>61</v>
+        <v>14</v>
+      </c>
+      <c r="E29">
+        <v>12000</v>
       </c>
       <c r="F29" t="s">
         <v>16</v>
       </c>
       <c r="G29" t="s">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="H29" t="s">
         <v>18</v>
       </c>
       <c r="I29" s="2">
-        <v>44258</v>
+        <v>44240</v>
       </c>
       <c r="J29" s="1">
-        <v>0.75694444444444453</v>
+        <v>0.38611111111111113</v>
       </c>
       <c r="K29" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
@@ -1817,34 +1782,34 @@
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="C30" t="s">
         <v>13</v>
       </c>
       <c r="D30" t="s">
-        <v>69</v>
-      </c>
-      <c r="E30" t="s">
-        <v>70</v>
+        <v>14</v>
+      </c>
+      <c r="E30">
+        <v>12000</v>
       </c>
       <c r="F30" t="s">
         <v>16</v>
       </c>
       <c r="G30" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="H30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I30" s="2">
-        <v>44522</v>
+        <v>44241</v>
       </c>
       <c r="J30" s="1">
-        <v>0.46666666666666662</v>
+        <v>0.52222222222222225</v>
       </c>
       <c r="K30" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
@@ -1852,34 +1817,34 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>68</v>
+        <v>102</v>
       </c>
       <c r="C31" t="s">
         <v>13</v>
       </c>
       <c r="D31" t="s">
-        <v>69</v>
+        <v>103</v>
       </c>
       <c r="E31" t="s">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="F31" t="s">
         <v>16</v>
       </c>
       <c r="G31" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="H31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I31" s="2">
-        <v>44524</v>
+        <v>44256</v>
       </c>
       <c r="J31" s="1">
-        <v>0.61388888888888882</v>
+        <v>0.47430555555555554</v>
       </c>
       <c r="K31" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
@@ -1887,34 +1852,34 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>71</v>
+        <v>102</v>
       </c>
       <c r="C32" t="s">
         <v>13</v>
       </c>
       <c r="D32" t="s">
-        <v>69</v>
+        <v>103</v>
       </c>
       <c r="E32" t="s">
-        <v>72</v>
+        <v>104</v>
       </c>
       <c r="F32" t="s">
         <v>16</v>
       </c>
       <c r="G32" t="s">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="H32" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="I32" s="2">
-        <v>44520</v>
+        <v>44256</v>
       </c>
       <c r="J32" s="1">
-        <v>0.43263888888888885</v>
+        <v>0.75694444444444453</v>
       </c>
       <c r="K32" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
@@ -1922,34 +1887,34 @@
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>71</v>
+        <v>105</v>
       </c>
       <c r="C33" t="s">
         <v>13</v>
       </c>
       <c r="D33" t="s">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c r="E33" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="F33" t="s">
         <v>16</v>
       </c>
       <c r="G33" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="H33" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I33" s="2">
-        <v>44521</v>
+        <v>44256</v>
       </c>
       <c r="J33" s="1">
-        <v>0.48055555555555557</v>
+        <v>0.59930555555555554</v>
       </c>
       <c r="K33" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
@@ -1957,34 +1922,34 @@
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>73</v>
+        <v>105</v>
       </c>
       <c r="C34" t="s">
         <v>13</v>
       </c>
       <c r="D34" t="s">
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="E34" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="F34" t="s">
         <v>16</v>
       </c>
       <c r="G34" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="H34" t="s">
-        <v>51</v>
-      </c>
-      <c r="I34" s="2" t="s">
-        <v>76</v>
+        <v>26</v>
+      </c>
+      <c r="I34" s="2">
+        <v>44256</v>
       </c>
       <c r="J34" s="1">
-        <v>0.75694444444444453</v>
+        <v>0.79999999999999993</v>
       </c>
       <c r="K34" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
@@ -1992,16 +1957,16 @@
         <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="C35" t="s">
         <v>13</v>
       </c>
       <c r="D35" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="E35" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="F35" t="s">
         <v>16</v>
@@ -2010,16 +1975,16 @@
         <v>17</v>
       </c>
       <c r="H35" t="s">
-        <v>51</v>
-      </c>
-      <c r="I35" s="2" t="s">
-        <v>76</v>
+        <v>49</v>
+      </c>
+      <c r="I35" s="2">
+        <v>44257</v>
       </c>
       <c r="J35" s="1">
-        <v>0.52986111111111112</v>
+        <v>0.5083333333333333</v>
       </c>
       <c r="K35" t="s">
-        <v>77</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
@@ -2027,34 +1992,34 @@
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="C36" t="s">
         <v>13</v>
       </c>
       <c r="D36" t="s">
-        <v>79</v>
-      </c>
-      <c r="E36" t="s">
-        <v>80</v>
+        <v>63</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="F36" t="s">
         <v>16</v>
       </c>
       <c r="G36" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="H36" t="s">
+        <v>26</v>
+      </c>
+      <c r="I36" s="2">
+        <v>44257</v>
+      </c>
+      <c r="J36" s="1">
+        <v>0.57152777777777775</v>
+      </c>
+      <c r="K36" t="s">
         <v>27</v>
-      </c>
-      <c r="I36" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="J36" s="1">
-        <v>0.60555555555555551</v>
-      </c>
-      <c r="K36" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
@@ -2062,34 +2027,34 @@
         <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>78</v>
+        <v>111</v>
       </c>
       <c r="C37" t="s">
         <v>13</v>
       </c>
       <c r="D37" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="E37" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="F37" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="G37" t="s">
-        <v>82</v>
+        <v>17</v>
       </c>
       <c r="H37" t="s">
-        <v>41</v>
-      </c>
-      <c r="I37" s="2" t="s">
-        <v>81</v>
+        <v>26</v>
+      </c>
+      <c r="I37" s="2">
+        <v>44257</v>
       </c>
       <c r="J37" s="1">
         <v>0.60555555555555551</v>
       </c>
       <c r="K37" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
@@ -2097,34 +2062,34 @@
         <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="C38" t="s">
         <v>13</v>
       </c>
       <c r="D38" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="E38" t="s">
-        <v>85</v>
+        <v>58</v>
       </c>
       <c r="F38" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="G38" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="H38" t="s">
-        <v>27</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>86</v>
+        <v>18</v>
+      </c>
+      <c r="I38" s="2">
+        <v>44258</v>
       </c>
       <c r="J38" s="1">
-        <v>0.65486111111111112</v>
+        <v>0.75694444444444453</v>
       </c>
       <c r="K38" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
@@ -2132,34 +2097,34 @@
         <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>83</v>
+        <v>111</v>
       </c>
       <c r="C39" t="s">
         <v>13</v>
       </c>
       <c r="D39" t="s">
-        <v>84</v>
-      </c>
-      <c r="E39" t="s">
-        <v>85</v>
+        <v>63</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="F39" t="s">
+        <v>16</v>
+      </c>
+      <c r="G39" t="s">
         <v>33</v>
       </c>
-      <c r="G39" t="s">
-        <v>87</v>
-      </c>
       <c r="H39" t="s">
+        <v>26</v>
+      </c>
+      <c r="I39" s="2">
+        <v>44258</v>
+      </c>
+      <c r="J39" s="1">
+        <v>0.64861111111111114</v>
+      </c>
+      <c r="K39" t="s">
         <v>27</v>
-      </c>
-      <c r="I39" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="J39" s="1">
-        <v>0.65486111111111112</v>
-      </c>
-      <c r="K39" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
@@ -2167,16 +2132,16 @@
         <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="C40" t="s">
         <v>13</v>
       </c>
       <c r="D40" t="s">
-        <v>89</v>
+        <v>14</v>
       </c>
       <c r="E40" t="s">
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="F40" t="s">
         <v>16</v>
@@ -2185,16 +2150,16 @@
         <v>17</v>
       </c>
       <c r="H40" t="s">
-        <v>27</v>
-      </c>
-      <c r="I40" s="2" t="s">
-        <v>91</v>
+        <v>18</v>
+      </c>
+      <c r="I40" s="2">
+        <v>44271</v>
       </c>
       <c r="J40" s="1">
-        <v>0.5083333333333333</v>
+        <v>0.34375</v>
       </c>
       <c r="K40" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
@@ -2202,34 +2167,34 @@
         <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>88</v>
+        <v>23</v>
       </c>
       <c r="C41" t="s">
         <v>13</v>
       </c>
       <c r="D41" t="s">
-        <v>89</v>
+        <v>24</v>
       </c>
       <c r="E41" t="s">
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="F41" t="s">
         <v>16</v>
       </c>
       <c r="G41" t="s">
-        <v>82</v>
+        <v>17</v>
       </c>
       <c r="H41" t="s">
-        <v>27</v>
-      </c>
-      <c r="I41" s="2" t="s">
-        <v>91</v>
+        <v>18</v>
+      </c>
+      <c r="I41" s="2">
+        <v>44271</v>
       </c>
       <c r="J41" s="1">
-        <v>0.5131944444444444</v>
+        <v>41548</v>
       </c>
       <c r="K41" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
@@ -2237,34 +2202,34 @@
         <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>88</v>
+        <v>23</v>
       </c>
       <c r="C42" t="s">
         <v>13</v>
       </c>
       <c r="D42" t="s">
-        <v>89</v>
-      </c>
-      <c r="E42" t="s">
-        <v>90</v>
+        <v>24</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="F42" t="s">
         <v>16</v>
       </c>
       <c r="G42" t="s">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="H42" t="s">
+        <v>26</v>
+      </c>
+      <c r="I42" s="2">
+        <v>44271</v>
+      </c>
+      <c r="J42" s="1">
+        <v>0.53125</v>
+      </c>
+      <c r="K42" t="s">
         <v>27</v>
-      </c>
-      <c r="I42" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="J42" s="1">
-        <v>0.72222222222222221</v>
-      </c>
-      <c r="K42" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
@@ -2272,19 +2237,19 @@
         <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>92</v>
+        <v>34</v>
       </c>
       <c r="C43" t="s">
         <v>13</v>
       </c>
       <c r="D43" t="s">
-        <v>89</v>
+        <v>14</v>
       </c>
       <c r="E43" t="s">
-        <v>93</v>
+        <v>35</v>
       </c>
       <c r="F43" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="G43" t="s">
         <v>17</v>
@@ -2292,14 +2257,14 @@
       <c r="H43" t="s">
         <v>18</v>
       </c>
-      <c r="I43" s="2" t="s">
-        <v>94</v>
+      <c r="I43" s="2">
+        <v>44271</v>
       </c>
       <c r="J43" s="1">
-        <v>0.55763888888888891</v>
+        <v>0.38611111111111113</v>
       </c>
       <c r="K43" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
@@ -2307,34 +2272,34 @@
         <v>11</v>
       </c>
       <c r="B44" t="s">
-        <v>92</v>
+        <v>34</v>
       </c>
       <c r="C44" t="s">
         <v>13</v>
       </c>
       <c r="D44" t="s">
-        <v>89</v>
+        <v>14</v>
       </c>
       <c r="E44" t="s">
-        <v>93</v>
+        <v>35</v>
       </c>
       <c r="F44" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="G44" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="H44" t="s">
-        <v>18</v>
-      </c>
-      <c r="I44" s="2" t="s">
-        <v>94</v>
+        <v>26</v>
+      </c>
+      <c r="I44" s="2">
+        <v>44271</v>
       </c>
       <c r="J44" s="1">
-        <v>0.79861111111111116</v>
+        <v>0.52222222222222225</v>
       </c>
       <c r="K44" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
@@ -2342,34 +2307,34 @@
         <v>11</v>
       </c>
       <c r="B45" t="s">
-        <v>95</v>
+        <v>36</v>
       </c>
       <c r="C45" t="s">
         <v>13</v>
       </c>
       <c r="D45" t="s">
-        <v>96</v>
+        <v>37</v>
       </c>
       <c r="E45" t="s">
-        <v>97</v>
+        <v>38</v>
       </c>
       <c r="F45" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="G45" t="s">
         <v>17</v>
       </c>
       <c r="H45" t="s">
-        <v>27</v>
-      </c>
-      <c r="I45" s="2" t="s">
-        <v>81</v>
+        <v>18</v>
+      </c>
+      <c r="I45" s="2">
+        <v>44271</v>
       </c>
       <c r="J45" s="1">
-        <v>0.47430555555555554</v>
+        <v>0.42430555555555555</v>
       </c>
       <c r="K45" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
@@ -2377,34 +2342,34 @@
         <v>11</v>
       </c>
       <c r="B46" t="s">
-        <v>95</v>
+        <v>36</v>
       </c>
       <c r="C46" t="s">
         <v>13</v>
       </c>
       <c r="D46" t="s">
-        <v>96</v>
+        <v>37</v>
       </c>
       <c r="E46" t="s">
-        <v>97</v>
+        <v>38</v>
       </c>
       <c r="F46" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G46" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H46" t="s">
-        <v>27</v>
-      </c>
-      <c r="I46" s="2" t="s">
-        <v>81</v>
+        <v>39</v>
+      </c>
+      <c r="I46" s="2">
+        <v>44271</v>
       </c>
       <c r="J46" s="1">
-        <v>0.53125</v>
+        <v>0.7319444444444444</v>
       </c>
       <c r="K46" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
@@ -2412,34 +2377,34 @@
         <v>11</v>
       </c>
       <c r="B47" t="s">
-        <v>98</v>
+        <v>12</v>
       </c>
       <c r="C47" t="s">
         <v>13</v>
       </c>
       <c r="D47" t="s">
-        <v>99</v>
+        <v>14</v>
       </c>
       <c r="E47" t="s">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="F47" t="s">
         <v>16</v>
       </c>
       <c r="G47" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H47" t="s">
-        <v>18</v>
-      </c>
-      <c r="I47" s="2" t="s">
-        <v>101</v>
+        <v>21</v>
+      </c>
+      <c r="I47" s="2">
+        <v>44272</v>
       </c>
       <c r="J47" s="1">
-        <v>0.59166666666666667</v>
+        <v>0.65625</v>
       </c>
       <c r="K47" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
@@ -2447,34 +2412,34 @@
         <v>11</v>
       </c>
       <c r="B48" t="s">
-        <v>98</v>
+        <v>23</v>
       </c>
       <c r="C48" t="s">
         <v>13</v>
       </c>
       <c r="D48" t="s">
-        <v>99</v>
+        <v>24</v>
       </c>
       <c r="E48" t="s">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="F48" t="s">
         <v>16</v>
       </c>
       <c r="G48" t="s">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="H48" t="s">
         <v>18</v>
       </c>
-      <c r="I48" s="2" t="s">
-        <v>101</v>
+      <c r="I48" s="2">
+        <v>44273</v>
       </c>
       <c r="J48" s="1">
-        <v>0.71527777777777779</v>
+        <v>0.59375</v>
       </c>
       <c r="K48" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
@@ -2482,16 +2447,16 @@
         <v>11</v>
       </c>
       <c r="B49" t="s">
-        <v>102</v>
+        <v>41</v>
       </c>
       <c r="C49" t="s">
         <v>13</v>
       </c>
       <c r="D49" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="E49" t="s">
-        <v>103</v>
+        <v>43</v>
       </c>
       <c r="F49" t="s">
         <v>16</v>
@@ -2500,16 +2465,16 @@
         <v>17</v>
       </c>
       <c r="H49" t="s">
-        <v>27</v>
-      </c>
-      <c r="I49" s="2" t="s">
-        <v>104</v>
+        <v>18</v>
+      </c>
+      <c r="I49" s="2">
+        <v>44275</v>
       </c>
       <c r="J49" s="1">
-        <v>0.3833333333333333</v>
+        <v>0.55138888888888882</v>
       </c>
       <c r="K49" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
@@ -2517,34 +2482,34 @@
         <v>11</v>
       </c>
       <c r="B50" t="s">
-        <v>102</v>
+        <v>41</v>
       </c>
       <c r="C50" t="s">
         <v>13</v>
       </c>
       <c r="D50" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="E50" t="s">
-        <v>103</v>
+        <v>43</v>
       </c>
       <c r="F50" t="s">
         <v>16</v>
       </c>
       <c r="G50" t="s">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="H50" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I50" s="2">
-        <v>44157</v>
+        <v>44276</v>
       </c>
       <c r="J50" s="1">
-        <v>0.71527777777777779</v>
+        <v>0.52361111111111114</v>
       </c>
       <c r="K50" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
@@ -2552,16 +2517,16 @@
         <v>11</v>
       </c>
       <c r="B51" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="C51" t="s">
         <v>13</v>
       </c>
       <c r="D51" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="E51" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="F51" t="s">
         <v>16</v>
@@ -2570,16 +2535,16 @@
         <v>17</v>
       </c>
       <c r="H51" t="s">
-        <v>51</v>
-      </c>
-      <c r="I51" s="2" t="s">
-        <v>104</v>
+        <v>18</v>
+      </c>
+      <c r="I51" s="2">
+        <v>44277</v>
       </c>
       <c r="J51" s="1">
-        <v>0.47152777777777777</v>
+        <v>0.59166666666666667</v>
       </c>
       <c r="K51" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
@@ -2587,34 +2552,34 @@
         <v>11</v>
       </c>
       <c r="B52" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="C52" t="s">
         <v>13</v>
       </c>
       <c r="D52" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="E52" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="F52" t="s">
         <v>16</v>
       </c>
       <c r="G52" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="H52" t="s">
-        <v>51</v>
-      </c>
-      <c r="I52" s="2" t="s">
-        <v>104</v>
+        <v>18</v>
+      </c>
+      <c r="I52" s="2">
+        <v>44277</v>
       </c>
       <c r="J52" s="1">
-        <v>0.88194444444444453</v>
+        <v>0.71527777777777779</v>
       </c>
       <c r="K52" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
@@ -2622,16 +2587,16 @@
         <v>11</v>
       </c>
       <c r="B53" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="C53" t="s">
         <v>13</v>
       </c>
       <c r="D53" t="s">
-        <v>69</v>
+        <v>114</v>
       </c>
       <c r="E53" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="F53" t="s">
         <v>16</v>
@@ -2640,16 +2605,16 @@
         <v>17</v>
       </c>
       <c r="H53" t="s">
-        <v>27</v>
-      </c>
-      <c r="I53" s="2" t="s">
-        <v>109</v>
+        <v>49</v>
+      </c>
+      <c r="I53" s="2">
+        <v>44278</v>
       </c>
       <c r="J53" s="1">
-        <v>0.47430555555555554</v>
+        <v>0.34166666666666662</v>
       </c>
       <c r="K53" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
@@ -2657,34 +2622,34 @@
         <v>11</v>
       </c>
       <c r="B54" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="C54" t="s">
         <v>13</v>
       </c>
       <c r="D54" t="s">
-        <v>69</v>
+        <v>114</v>
       </c>
       <c r="E54" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="F54" t="s">
         <v>16</v>
       </c>
       <c r="G54" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="H54" t="s">
-        <v>27</v>
-      </c>
-      <c r="I54" s="2" t="s">
-        <v>109</v>
+        <v>49</v>
+      </c>
+      <c r="I54" s="2">
+        <v>44278</v>
       </c>
       <c r="J54" s="1">
-        <v>0.59166666666666667</v>
+        <v>0.52361111111111114</v>
       </c>
       <c r="K54" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
@@ -2692,16 +2657,16 @@
         <v>11</v>
       </c>
       <c r="B55" t="s">
-        <v>110</v>
+        <v>29</v>
       </c>
       <c r="C55" t="s">
         <v>13</v>
       </c>
       <c r="D55" t="s">
-        <v>111</v>
-      </c>
-      <c r="E55" t="s">
-        <v>112</v>
+        <v>14</v>
+      </c>
+      <c r="E55">
+        <v>7890</v>
       </c>
       <c r="F55" t="s">
         <v>16</v>
@@ -2710,16 +2675,16 @@
         <v>17</v>
       </c>
       <c r="H55" t="s">
-        <v>113</v>
-      </c>
-      <c r="I55" s="2" t="s">
-        <v>114</v>
+        <v>26</v>
+      </c>
+      <c r="I55" s="2">
+        <v>44297</v>
       </c>
       <c r="J55" s="1">
-        <v>0.40625</v>
+        <v>0.52361111111111114</v>
       </c>
       <c r="K55" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
@@ -2727,34 +2692,34 @@
         <v>11</v>
       </c>
       <c r="B56" t="s">
-        <v>110</v>
+        <v>29</v>
       </c>
       <c r="C56" t="s">
         <v>13</v>
       </c>
       <c r="D56" t="s">
-        <v>111</v>
-      </c>
-      <c r="E56" t="s">
-        <v>112</v>
+        <v>14</v>
+      </c>
+      <c r="E56" s="3">
+        <v>7890</v>
       </c>
       <c r="F56" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="G56" t="s">
-        <v>87</v>
+        <v>32</v>
       </c>
       <c r="H56" t="s">
+        <v>21</v>
+      </c>
+      <c r="I56" s="2">
+        <v>44297</v>
+      </c>
+      <c r="J56" s="1">
+        <v>0.71666666666666667</v>
+      </c>
+      <c r="K56" t="s">
         <v>27</v>
-      </c>
-      <c r="I56" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="J56" s="1">
-        <v>0.76388888888888884</v>
-      </c>
-      <c r="K56" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
@@ -2762,34 +2727,34 @@
         <v>11</v>
       </c>
       <c r="B57" t="s">
-        <v>115</v>
+        <v>29</v>
       </c>
       <c r="C57" t="s">
         <v>13</v>
       </c>
       <c r="D57" t="s">
-        <v>116</v>
-      </c>
-      <c r="E57" t="s">
-        <v>117</v>
+        <v>14</v>
+      </c>
+      <c r="E57">
+        <v>7890</v>
       </c>
       <c r="F57" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="G57" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="H57" t="s">
-        <v>27</v>
-      </c>
-      <c r="I57" s="2" t="s">
-        <v>118</v>
+        <v>21</v>
+      </c>
+      <c r="I57" s="2">
+        <v>44299</v>
       </c>
       <c r="J57" s="1">
-        <v>0.47430555555555554</v>
+        <v>0.75694444444444453</v>
       </c>
       <c r="K57" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
@@ -2797,34 +2762,34 @@
         <v>11</v>
       </c>
       <c r="B58" t="s">
-        <v>115</v>
+        <v>41</v>
       </c>
       <c r="C58" t="s">
         <v>13</v>
       </c>
       <c r="D58" t="s">
-        <v>116</v>
-      </c>
-      <c r="E58" t="s">
-        <v>117</v>
+        <v>42</v>
+      </c>
+      <c r="E58">
+        <v>30000</v>
       </c>
       <c r="F58" t="s">
         <v>16</v>
       </c>
       <c r="G58" t="s">
-        <v>87</v>
+        <v>17</v>
       </c>
       <c r="H58" t="s">
-        <v>51</v>
-      </c>
-      <c r="I58" s="2" t="s">
-        <v>118</v>
+        <v>18</v>
+      </c>
+      <c r="I58" s="2">
+        <v>44305</v>
       </c>
       <c r="J58" s="1">
-        <v>0.75694444444444453</v>
+        <v>0.55138888888888882</v>
       </c>
       <c r="K58" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
@@ -2832,34 +2797,34 @@
         <v>11</v>
       </c>
       <c r="B59" t="s">
-        <v>119</v>
+        <v>41</v>
       </c>
       <c r="C59" t="s">
         <v>13</v>
       </c>
       <c r="D59" t="s">
-        <v>120</v>
-      </c>
-      <c r="E59" t="s">
-        <v>54</v>
+        <v>42</v>
+      </c>
+      <c r="E59">
+        <v>3000</v>
       </c>
       <c r="F59" t="s">
         <v>16</v>
       </c>
       <c r="G59" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H59" t="s">
-        <v>18</v>
-      </c>
-      <c r="I59" s="2" t="s">
-        <v>118</v>
+        <v>26</v>
+      </c>
+      <c r="I59" s="2">
+        <v>44306</v>
       </c>
       <c r="J59" s="1">
-        <v>0.59930555555555554</v>
+        <v>0.52361111111111114</v>
       </c>
       <c r="K59" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
@@ -2867,34 +2832,34 @@
         <v>11</v>
       </c>
       <c r="B60" t="s">
-        <v>119</v>
+        <v>36</v>
       </c>
       <c r="C60" t="s">
         <v>13</v>
       </c>
       <c r="D60" t="s">
-        <v>120</v>
-      </c>
-      <c r="E60" t="s">
-        <v>54</v>
+        <v>37</v>
+      </c>
+      <c r="E60">
+        <v>12000</v>
       </c>
       <c r="F60" t="s">
         <v>16</v>
       </c>
       <c r="G60" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="H60" t="s">
-        <v>27</v>
-      </c>
-      <c r="I60" s="2" t="s">
-        <v>118</v>
+        <v>18</v>
+      </c>
+      <c r="I60" s="2">
+        <v>44388</v>
       </c>
       <c r="J60" s="1">
-        <v>0.79999999999999993</v>
+        <v>0.42430555555555555</v>
       </c>
       <c r="K60" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
@@ -2902,34 +2867,34 @@
         <v>11</v>
       </c>
       <c r="B61" t="s">
-        <v>121</v>
+        <v>36</v>
       </c>
       <c r="C61" t="s">
         <v>13</v>
       </c>
       <c r="D61" t="s">
-        <v>122</v>
-      </c>
-      <c r="E61" t="s">
-        <v>123</v>
+        <v>37</v>
+      </c>
+      <c r="E61">
+        <v>12000</v>
       </c>
       <c r="F61" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G61" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="H61" t="s">
-        <v>124</v>
-      </c>
-      <c r="I61" s="2" t="s">
-        <v>76</v>
+        <v>39</v>
+      </c>
+      <c r="I61" s="2">
+        <v>44388</v>
       </c>
       <c r="J61" s="1">
-        <v>0.35694444444444445</v>
+        <v>0.7319444444444444</v>
       </c>
       <c r="K61" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
@@ -2937,34 +2902,34 @@
         <v>11</v>
       </c>
       <c r="B62" t="s">
-        <v>121</v>
+        <v>50</v>
       </c>
       <c r="C62" t="s">
         <v>13</v>
       </c>
       <c r="D62" t="s">
-        <v>122</v>
-      </c>
-      <c r="E62" t="s">
-        <v>123</v>
+        <v>51</v>
+      </c>
+      <c r="E62">
+        <v>17430</v>
       </c>
       <c r="F62" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="G62" t="s">
-        <v>87</v>
+        <v>17</v>
       </c>
       <c r="H62" t="s">
-        <v>27</v>
-      </c>
-      <c r="I62" s="2" t="s">
-        <v>76</v>
+        <v>26</v>
+      </c>
+      <c r="I62" s="2">
+        <v>44388</v>
       </c>
       <c r="J62" s="1">
-        <v>0.52708333333333335</v>
+        <v>0.52986111111111112</v>
       </c>
       <c r="K62" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
@@ -2972,34 +2937,34 @@
         <v>11</v>
       </c>
       <c r="B63" t="s">
-        <v>125</v>
+        <v>50</v>
       </c>
       <c r="C63" t="s">
         <v>13</v>
       </c>
       <c r="D63" t="s">
-        <v>126</v>
-      </c>
-      <c r="E63" t="s">
-        <v>97</v>
+        <v>51</v>
+      </c>
+      <c r="E63" s="3">
+        <v>17430</v>
       </c>
       <c r="F63" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="G63" t="s">
         <v>17</v>
       </c>
       <c r="H63" t="s">
+        <v>18</v>
+      </c>
+      <c r="I63" s="2">
+        <v>44389</v>
+      </c>
+      <c r="J63" s="1">
+        <v>0.65347222222222223</v>
+      </c>
+      <c r="K63" t="s">
         <v>27</v>
-      </c>
-      <c r="I63" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="J63" s="1">
-        <v>0.41250000000000003</v>
-      </c>
-      <c r="K63" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
@@ -3007,34 +2972,34 @@
         <v>11</v>
       </c>
       <c r="B64" t="s">
-        <v>125</v>
+        <v>50</v>
       </c>
       <c r="C64" t="s">
         <v>13</v>
       </c>
       <c r="D64" t="s">
-        <v>126</v>
-      </c>
-      <c r="E64" t="s">
-        <v>97</v>
+        <v>51</v>
+      </c>
+      <c r="E64">
+        <v>17430</v>
       </c>
       <c r="F64" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="G64" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H64" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="I64" s="2">
-        <v>44218</v>
+        <v>44390</v>
       </c>
       <c r="J64" s="1">
-        <v>0.73055555555555562</v>
+        <v>0.75694444444444453</v>
       </c>
       <c r="K64" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
@@ -3042,16 +3007,16 @@
         <v>11</v>
       </c>
       <c r="B65" t="s">
-        <v>125</v>
+        <v>44</v>
       </c>
       <c r="C65" t="s">
         <v>13</v>
       </c>
       <c r="D65" t="s">
-        <v>66</v>
-      </c>
-      <c r="E65" t="s">
-        <v>61</v>
+        <v>45</v>
+      </c>
+      <c r="E65">
+        <v>12400</v>
       </c>
       <c r="F65" t="s">
         <v>16</v>
@@ -3060,16 +3025,16 @@
         <v>17</v>
       </c>
       <c r="H65" t="s">
-        <v>27</v>
-      </c>
-      <c r="I65" s="2" t="s">
-        <v>67</v>
+        <v>18</v>
+      </c>
+      <c r="I65" s="2">
+        <v>44454</v>
       </c>
       <c r="J65" s="1">
-        <v>0.60555555555555551</v>
+        <v>0.43263888888888885</v>
       </c>
       <c r="K65" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
@@ -3077,34 +3042,34 @@
         <v>11</v>
       </c>
       <c r="B66" t="s">
-        <v>125</v>
+        <v>44</v>
       </c>
       <c r="C66" t="s">
         <v>13</v>
       </c>
       <c r="D66" t="s">
-        <v>66</v>
-      </c>
-      <c r="E66" t="s">
-        <v>61</v>
+        <v>45</v>
+      </c>
+      <c r="E66">
+        <v>12400</v>
       </c>
       <c r="F66" t="s">
         <v>16</v>
       </c>
       <c r="G66" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H66" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I66" s="2">
-        <v>44258</v>
+        <v>44455</v>
       </c>
       <c r="J66" s="1">
-        <v>0.64861111111111114</v>
+        <v>0.48819444444444443</v>
       </c>
       <c r="K66" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
@@ -3112,34 +3077,34 @@
         <v>11</v>
       </c>
       <c r="B67" t="s">
-        <v>128</v>
+        <v>44</v>
       </c>
       <c r="C67" t="s">
         <v>13</v>
       </c>
       <c r="D67" t="s">
-        <v>129</v>
-      </c>
-      <c r="E67" t="s">
-        <v>130</v>
+        <v>45</v>
+      </c>
+      <c r="E67">
+        <v>12400</v>
       </c>
       <c r="F67" t="s">
         <v>16</v>
       </c>
       <c r="G67" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="H67" t="s">
-        <v>51</v>
-      </c>
-      <c r="I67" s="2" t="s">
-        <v>131</v>
+        <v>49</v>
+      </c>
+      <c r="I67" s="2">
+        <v>44455</v>
       </c>
       <c r="J67" s="1">
-        <v>0.34166666666666662</v>
+        <v>0.70972222222222225</v>
       </c>
       <c r="K67" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
@@ -3147,34 +3112,34 @@
         <v>11</v>
       </c>
       <c r="B68" t="s">
-        <v>128</v>
+        <v>54</v>
       </c>
       <c r="C68" t="s">
         <v>13</v>
       </c>
       <c r="D68" t="s">
-        <v>129</v>
-      </c>
-      <c r="E68" t="s">
-        <v>130</v>
+        <v>55</v>
+      </c>
+      <c r="E68">
+        <v>12000</v>
       </c>
       <c r="F68" t="s">
         <v>16</v>
       </c>
       <c r="G68" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="H68" t="s">
-        <v>51</v>
-      </c>
-      <c r="I68" s="2" t="s">
-        <v>131</v>
+        <v>26</v>
+      </c>
+      <c r="I68" s="2">
+        <v>44474</v>
       </c>
       <c r="J68" s="1">
-        <v>0.52361111111111114</v>
+        <v>0.52986111111111112</v>
       </c>
       <c r="K68" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
@@ -3182,16 +3147,16 @@
         <v>11</v>
       </c>
       <c r="B69" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="C69" t="s">
         <v>13</v>
       </c>
       <c r="D69" t="s">
-        <v>14</v>
-      </c>
-      <c r="E69" t="s">
-        <v>15</v>
+        <v>55</v>
+      </c>
+      <c r="E69" s="3">
+        <v>12000</v>
       </c>
       <c r="F69" t="s">
         <v>16</v>
@@ -3203,13 +3168,13 @@
         <v>18</v>
       </c>
       <c r="I69" s="2">
-        <v>44217</v>
+        <v>44474</v>
       </c>
       <c r="J69" s="1">
-        <v>0.40625</v>
+        <v>0.60555555555555551</v>
       </c>
       <c r="K69" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
@@ -3217,34 +3182,34 @@
         <v>11</v>
       </c>
       <c r="B70" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="C70" t="s">
         <v>13</v>
       </c>
       <c r="D70" t="s">
-        <v>14</v>
-      </c>
-      <c r="E70" t="s">
-        <v>15</v>
+        <v>55</v>
+      </c>
+      <c r="E70" s="3">
+        <v>12000</v>
       </c>
       <c r="F70" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="G70" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H70" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I70" s="2">
-        <v>44223</v>
+        <v>44476</v>
       </c>
       <c r="J70" s="1">
-        <v>0.53333333333333333</v>
+        <v>0.76458333333333339</v>
       </c>
       <c r="K70" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.3">
@@ -3252,16 +3217,16 @@
         <v>11</v>
       </c>
       <c r="B71" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C71" t="s">
         <v>13</v>
       </c>
       <c r="D71" t="s">
-        <v>25</v>
-      </c>
-      <c r="E71">
-        <v>2345</v>
+        <v>14</v>
+      </c>
+      <c r="E71" t="s">
+        <v>30</v>
       </c>
       <c r="F71" t="s">
         <v>16</v>
@@ -3270,16 +3235,16 @@
         <v>17</v>
       </c>
       <c r="H71" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I71" s="2">
-        <v>44549</v>
+        <v>44502</v>
       </c>
       <c r="J71" s="1">
-        <v>0.42499999999999999</v>
+        <v>0.35694444444444445</v>
       </c>
       <c r="K71" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
@@ -3287,34 +3252,34 @@
         <v>11</v>
       </c>
       <c r="B72" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C72" t="s">
         <v>13</v>
       </c>
       <c r="D72" t="s">
-        <v>25</v>
-      </c>
-      <c r="E72">
-        <v>2345</v>
+        <v>14</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="F72" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="G72" t="s">
+        <v>32</v>
+      </c>
+      <c r="H72" t="s">
         <v>21</v>
       </c>
-      <c r="H72" t="s">
+      <c r="I72" s="2">
+        <v>44503</v>
+      </c>
+      <c r="J72" s="1">
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="K72" t="s">
         <v>27</v>
-      </c>
-      <c r="I72" s="2">
-        <v>44550</v>
-      </c>
-      <c r="J72" s="1">
-        <v>0.56180555555555556</v>
-      </c>
-      <c r="K72" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
@@ -3322,34 +3287,34 @@
         <v>11</v>
       </c>
       <c r="B73" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C73" t="s">
         <v>13</v>
       </c>
       <c r="D73" t="s">
-        <v>25</v>
-      </c>
-      <c r="E73">
-        <v>2345</v>
+        <v>14</v>
+      </c>
+      <c r="E73" t="s">
+        <v>30</v>
       </c>
       <c r="F73" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="G73" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H73" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I73" s="2">
-        <v>44550</v>
+        <v>44503</v>
       </c>
       <c r="J73" s="1">
-        <v>1</v>
+        <v>0.7319444444444444</v>
       </c>
       <c r="K73" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
@@ -3357,16 +3322,16 @@
         <v>11</v>
       </c>
       <c r="B74" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="C74" t="s">
         <v>13</v>
       </c>
       <c r="D74" t="s">
-        <v>14</v>
-      </c>
-      <c r="E74">
-        <v>7890</v>
+        <v>65</v>
+      </c>
+      <c r="E74" t="s">
+        <v>68</v>
       </c>
       <c r="F74" t="s">
         <v>16</v>
@@ -3375,16 +3340,16 @@
         <v>17</v>
       </c>
       <c r="H74" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I74" s="2">
-        <v>44297</v>
+        <v>44520</v>
       </c>
       <c r="J74" s="1">
-        <v>0.52361111111111114</v>
+        <v>0.43263888888888885</v>
       </c>
       <c r="K74" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.3">
@@ -3392,34 +3357,34 @@
         <v>11</v>
       </c>
       <c r="B75" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="C75" t="s">
         <v>13</v>
       </c>
       <c r="D75" t="s">
-        <v>14</v>
-      </c>
-      <c r="E75">
-        <v>7890</v>
+        <v>65</v>
+      </c>
+      <c r="E75" t="s">
+        <v>68</v>
       </c>
       <c r="F75" t="s">
+        <v>16</v>
+      </c>
+      <c r="G75" t="s">
         <v>33</v>
       </c>
-      <c r="G75" t="s">
-        <v>34</v>
-      </c>
       <c r="H75" t="s">
+        <v>26</v>
+      </c>
+      <c r="I75" s="2">
+        <v>44521</v>
+      </c>
+      <c r="J75" s="1">
+        <v>0.48055555555555557</v>
+      </c>
+      <c r="K75" t="s">
         <v>22</v>
-      </c>
-      <c r="I75" s="2">
-        <v>44297</v>
-      </c>
-      <c r="J75" s="1">
-        <v>0.71666666666666667</v>
-      </c>
-      <c r="K75" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
@@ -3427,34 +3392,34 @@
         <v>11</v>
       </c>
       <c r="B76" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="C76" t="s">
         <v>13</v>
       </c>
       <c r="D76" t="s">
-        <v>14</v>
-      </c>
-      <c r="E76">
-        <v>7890</v>
+        <v>65</v>
+      </c>
+      <c r="E76" t="s">
+        <v>66</v>
       </c>
       <c r="F76" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="G76" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="H76" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I76" s="2">
-        <v>44299</v>
+        <v>44522</v>
       </c>
       <c r="J76" s="1">
-        <v>0.75694444444444453</v>
+        <v>0.46666666666666662</v>
       </c>
       <c r="K76" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
@@ -3462,34 +3427,34 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="C77" t="s">
         <v>13</v>
       </c>
       <c r="D77" t="s">
-        <v>14</v>
-      </c>
-      <c r="E77">
-        <v>12000</v>
+        <v>65</v>
+      </c>
+      <c r="E77" t="s">
+        <v>66</v>
       </c>
       <c r="F77" t="s">
         <v>16</v>
       </c>
       <c r="G77" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="H77" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I77" s="2">
-        <v>44240</v>
+        <v>44524</v>
       </c>
       <c r="J77" s="1">
-        <v>0.38611111111111113</v>
+        <v>0.61388888888888882</v>
       </c>
       <c r="K77" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.3">
@@ -3497,34 +3462,34 @@
         <v>11</v>
       </c>
       <c r="B78" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="C78" t="s">
         <v>13</v>
       </c>
       <c r="D78" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="E78">
-        <v>12000</v>
+        <v>2345</v>
       </c>
       <c r="F78" t="s">
         <v>16</v>
       </c>
       <c r="G78" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="H78" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I78" s="2">
-        <v>44241</v>
+        <v>44549</v>
       </c>
       <c r="J78" s="1">
-        <v>0.52222222222222225</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="K78" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
@@ -3532,34 +3497,34 @@
         <v>11</v>
       </c>
       <c r="B79" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="C79" t="s">
         <v>13</v>
       </c>
       <c r="D79" t="s">
-        <v>39</v>
-      </c>
-      <c r="E79">
-        <v>12000</v>
+        <v>24</v>
+      </c>
+      <c r="E79" s="3">
+        <v>2345</v>
       </c>
       <c r="F79" t="s">
         <v>16</v>
       </c>
       <c r="G79" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H79" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I79" s="2">
-        <v>44388</v>
+        <v>44550</v>
       </c>
       <c r="J79" s="1">
-        <v>0.42430555555555555</v>
+        <v>0.56180555555555556</v>
       </c>
       <c r="K79" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
@@ -3567,34 +3532,34 @@
         <v>11</v>
       </c>
       <c r="B80" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="C80" t="s">
         <v>13</v>
       </c>
       <c r="D80" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="E80">
-        <v>12000</v>
+        <v>2345</v>
       </c>
       <c r="F80" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="G80" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="H80" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="I80" s="2">
-        <v>44388</v>
+        <v>44550</v>
       </c>
       <c r="J80" s="1">
-        <v>0.7319444444444444</v>
+        <v>1</v>
       </c>
       <c r="K80" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
@@ -3602,16 +3567,16 @@
         <v>11</v>
       </c>
       <c r="B81" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="C81" t="s">
         <v>13</v>
       </c>
       <c r="D81" t="s">
-        <v>44</v>
-      </c>
-      <c r="E81">
-        <v>30000</v>
+        <v>55</v>
+      </c>
+      <c r="E81" t="s">
+        <v>56</v>
       </c>
       <c r="F81" t="s">
         <v>16</v>
@@ -3620,16 +3585,16 @@
         <v>17</v>
       </c>
       <c r="H81" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I81" s="2">
-        <v>44305</v>
+        <v>44571</v>
       </c>
       <c r="J81" s="1">
-        <v>0.55138888888888882</v>
+        <v>0.52986111111111112</v>
       </c>
       <c r="K81" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
@@ -3637,34 +3602,34 @@
         <v>11</v>
       </c>
       <c r="B82" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="C82" t="s">
         <v>13</v>
       </c>
       <c r="D82" t="s">
-        <v>44</v>
-      </c>
-      <c r="E82">
-        <v>3000</v>
+        <v>55</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="F82" t="s">
         <v>16</v>
       </c>
       <c r="G82" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H82" t="s">
+        <v>18</v>
+      </c>
+      <c r="I82" s="2">
+        <v>44572</v>
+      </c>
+      <c r="J82" s="1">
+        <v>0.60555555555555551</v>
+      </c>
+      <c r="K82" t="s">
         <v>27</v>
-      </c>
-      <c r="I82" s="2">
-        <v>44306</v>
-      </c>
-      <c r="J82" s="1">
-        <v>0.52361111111111114</v>
-      </c>
-      <c r="K82" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
@@ -3672,34 +3637,34 @@
         <v>11</v>
       </c>
       <c r="B83" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="C83" t="s">
         <v>13</v>
       </c>
       <c r="D83" t="s">
-        <v>47</v>
-      </c>
-      <c r="E83">
-        <v>12400</v>
+        <v>55</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="F83" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="G83" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H83" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I83" s="2">
-        <v>44454</v>
+        <v>44572</v>
       </c>
       <c r="J83" s="1">
-        <v>0.43263888888888885</v>
+        <v>0.76458333333333339</v>
       </c>
       <c r="K83" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
@@ -3707,34 +3672,34 @@
         <v>11</v>
       </c>
       <c r="B84" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="C84" t="s">
         <v>13</v>
       </c>
       <c r="D84" t="s">
-        <v>47</v>
-      </c>
-      <c r="E84">
-        <v>12400</v>
+        <v>57</v>
+      </c>
+      <c r="E84" t="s">
+        <v>58</v>
       </c>
       <c r="F84" t="s">
         <v>16</v>
       </c>
       <c r="G84" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="H84" t="s">
-        <v>27</v>
-      </c>
-      <c r="I84" s="2">
-        <v>44455</v>
+        <v>18</v>
+      </c>
+      <c r="I84" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="J84" s="1">
-        <v>0.48819444444444443</v>
+        <v>0.65486111111111112</v>
       </c>
       <c r="K84" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
@@ -3742,34 +3707,34 @@
         <v>11</v>
       </c>
       <c r="B85" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="C85" t="s">
         <v>13</v>
       </c>
       <c r="D85" t="s">
-        <v>47</v>
-      </c>
-      <c r="E85">
-        <v>12400</v>
+        <v>57</v>
+      </c>
+      <c r="E85" t="s">
+        <v>58</v>
       </c>
       <c r="F85" t="s">
         <v>16</v>
       </c>
       <c r="G85" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="H85" t="s">
-        <v>51</v>
-      </c>
-      <c r="I85" s="2">
-        <v>44455</v>
+        <v>26</v>
+      </c>
+      <c r="I85" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="J85" s="1">
-        <v>0.70972222222222225</v>
+        <v>0.72291666666666676</v>
       </c>
       <c r="K85" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
@@ -3777,16 +3742,16 @@
         <v>11</v>
       </c>
       <c r="B86" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C86" t="s">
         <v>13</v>
       </c>
       <c r="D86" t="s">
-        <v>53</v>
-      </c>
-      <c r="E86">
-        <v>17430</v>
+        <v>45</v>
+      </c>
+      <c r="E86" t="s">
+        <v>46</v>
       </c>
       <c r="F86" t="s">
         <v>16</v>
@@ -3795,16 +3760,16 @@
         <v>17</v>
       </c>
       <c r="H86" t="s">
-        <v>27</v>
-      </c>
-      <c r="I86" s="2">
-        <v>44388</v>
+        <v>18</v>
+      </c>
+      <c r="I86" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="J86" s="1">
-        <v>0.52986111111111112</v>
+        <v>0.43263888888888885</v>
       </c>
       <c r="K86" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
@@ -3812,34 +3777,34 @@
         <v>11</v>
       </c>
       <c r="B87" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C87" t="s">
         <v>13</v>
       </c>
       <c r="D87" t="s">
-        <v>53</v>
-      </c>
-      <c r="E87">
-        <v>17430</v>
+        <v>45</v>
+      </c>
+      <c r="E87" t="s">
+        <v>46</v>
       </c>
       <c r="F87" t="s">
         <v>16</v>
       </c>
       <c r="G87" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="H87" t="s">
-        <v>18</v>
-      </c>
-      <c r="I87" s="2">
-        <v>44389</v>
+        <v>26</v>
+      </c>
+      <c r="I87" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="J87" s="1">
-        <v>0.65347222222222223</v>
+        <v>0.48819444444444443</v>
       </c>
       <c r="K87" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.3">
@@ -3847,34 +3812,34 @@
         <v>11</v>
       </c>
       <c r="B88" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C88" t="s">
         <v>13</v>
       </c>
       <c r="D88" t="s">
-        <v>53</v>
-      </c>
-      <c r="E88">
-        <v>17430</v>
+        <v>45</v>
+      </c>
+      <c r="E88" t="s">
+        <v>46</v>
       </c>
       <c r="F88" t="s">
         <v>16</v>
       </c>
       <c r="G88" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="H88" t="s">
-        <v>27</v>
-      </c>
-      <c r="I88" s="2">
-        <v>44390</v>
+        <v>49</v>
+      </c>
+      <c r="I88" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="J88" s="1">
-        <v>0.75694444444444453</v>
+        <v>0.70972222222222225</v>
       </c>
       <c r="K88" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
@@ -3882,16 +3847,16 @@
         <v>11</v>
       </c>
       <c r="B89" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C89" t="s">
         <v>13</v>
       </c>
       <c r="D89" t="s">
-        <v>57</v>
-      </c>
-      <c r="E89">
-        <v>12000</v>
+        <v>51</v>
+      </c>
+      <c r="E89" t="s">
+        <v>52</v>
       </c>
       <c r="F89" t="s">
         <v>16</v>
@@ -3900,16 +3865,16 @@
         <v>17</v>
       </c>
       <c r="H89" t="s">
-        <v>27</v>
-      </c>
-      <c r="I89" s="2">
-        <v>44474</v>
+        <v>26</v>
+      </c>
+      <c r="I89" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="J89" s="1">
         <v>0.52986111111111112</v>
       </c>
       <c r="K89" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
@@ -3917,16 +3882,16 @@
         <v>11</v>
       </c>
       <c r="B90" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C90" t="s">
         <v>13</v>
       </c>
       <c r="D90" t="s">
-        <v>57</v>
-      </c>
-      <c r="E90">
-        <v>12000</v>
+        <v>51</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="F90" t="s">
         <v>16</v>
@@ -3937,14 +3902,14 @@
       <c r="H90" t="s">
         <v>18</v>
       </c>
-      <c r="I90" s="2">
-        <v>44474</v>
+      <c r="I90" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="J90" s="1">
-        <v>0.60555555555555551</v>
+        <v>0.65347222222222223</v>
       </c>
       <c r="K90" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
@@ -3952,37 +3917,38 @@
         <v>11</v>
       </c>
       <c r="B91" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C91" t="s">
         <v>13</v>
       </c>
       <c r="D91" t="s">
-        <v>57</v>
-      </c>
-      <c r="E91">
-        <v>12000</v>
+        <v>51</v>
+      </c>
+      <c r="E91" t="s">
+        <v>52</v>
       </c>
       <c r="F91" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="G91" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H91" t="s">
-        <v>27</v>
-      </c>
-      <c r="I91" s="2">
-        <v>44476</v>
+        <v>26</v>
+      </c>
+      <c r="I91" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="J91" s="1">
-        <v>0.76458333333333339</v>
+        <v>0.75694444444444453</v>
       </c>
       <c r="K91" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:K91" xr:uid="{34CF87D3-5296-44C7-898D-811DB0F715A2}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/data/Payments.xlsx
+++ b/data/Payments.xlsx
@@ -1,23 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gixi_\Ironhack\DAFT_212\module_2\Project_Week_6\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4B29DC0-B66A-4478-B3BC-9C6A9CC2290D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0581CA07-32C6-4767-802D-01AD8F83BB72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{EC262E73-C69C-4C2A-8A9A-BDDEF9F428A1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{EC262E73-C69C-4C2A-8A9A-BDDEF9F428A1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$91</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="851" uniqueCount="132">
   <si>
     <t>Debtor</t>
   </si>
@@ -94,6 +91,9 @@
     <t>0.02</t>
   </si>
   <si>
+    <t>16-mars-21</t>
+  </si>
+  <si>
     <t>NEW</t>
   </si>
   <si>
@@ -130,6 +130,9 @@
     <t>1000000.00</t>
   </si>
   <si>
+    <t>02-nov-21</t>
+  </si>
+  <si>
     <t>EUR</t>
   </si>
   <si>
@@ -208,6 +211,9 @@
     <t>3326.00</t>
   </si>
   <si>
+    <t>10-janv-22</t>
+  </si>
+  <si>
     <t>REF001DEMO</t>
   </si>
   <si>
@@ -229,6 +235,9 @@
     <t>REFD543105</t>
   </si>
   <si>
+    <t>02-mars-21</t>
+  </si>
+  <si>
     <t>BETA NV.</t>
   </si>
   <si>
@@ -253,6 +262,9 @@
     <t>238.00</t>
   </si>
   <si>
+    <t>15-janv-21</t>
+  </si>
+  <si>
     <t>CANCELLED</t>
   </si>
   <si>
@@ -265,6 +277,9 @@
     <t>6709.00</t>
   </si>
   <si>
+    <t>13-janv-21</t>
+  </si>
+  <si>
     <t>FINVALTRXXX</t>
   </si>
   <si>
@@ -277,6 +292,9 @@
     <t>5188.00</t>
   </si>
   <si>
+    <t>14-janv-21</t>
+  </si>
+  <si>
     <t>TSIBAU44XXX</t>
   </si>
   <si>
@@ -289,12 +307,18 @@
     <t>120.00</t>
   </si>
   <si>
+    <t>05-janv-21</t>
+  </si>
+  <si>
     <t>CROSSSUPPORT SA</t>
   </si>
   <si>
     <t>6720.00</t>
   </si>
   <si>
+    <t>28-janv-21</t>
+  </si>
+  <si>
     <t xml:space="preserve">DELTA INC </t>
   </si>
   <si>
@@ -313,12 +337,18 @@
     <t>2100.00</t>
   </si>
   <si>
+    <t>22-mars-21</t>
+  </si>
+  <si>
     <t>ICRETA NV.</t>
   </si>
   <si>
     <t>800.00</t>
   </si>
   <si>
+    <t>20-nov-20</t>
+  </si>
+  <si>
     <t>IntellectEU NV.</t>
   </si>
   <si>
@@ -331,6 +361,9 @@
     <t>87600.00</t>
   </si>
   <si>
+    <t>21-nov-20</t>
+  </si>
+  <si>
     <t>ISUPPLIER2 PL.</t>
   </si>
   <si>
@@ -343,6 +376,9 @@
     <t>0.04</t>
   </si>
   <si>
+    <t>27-nov-20</t>
+  </si>
+  <si>
     <t xml:space="preserve">QUATRO INC </t>
   </si>
   <si>
@@ -352,6 +388,9 @@
     <t>3100.00</t>
   </si>
   <si>
+    <t>01-mars-21</t>
+  </si>
+  <si>
     <t xml:space="preserve">SIGMA INC </t>
   </si>
   <si>
@@ -376,6 +415,9 @@
     <t>REFD10192</t>
   </si>
   <si>
+    <t>21-janv-21</t>
+  </si>
+  <si>
     <t>ZERO LTD.</t>
   </si>
   <si>
@@ -383,6 +425,9 @@
   </si>
   <si>
     <t>12100.00</t>
+  </si>
+  <si>
+    <t>23-mars-21</t>
   </si>
 </sst>
 </file>
@@ -421,13 +466,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -446,7 +488,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -744,21 +786,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34CF87D3-5296-44C7-898D-811DB0F715A2}">
   <dimension ref="A1:K91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I77" sqref="I77"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" customWidth="1"/>
-    <col min="2" max="2" width="29.44140625" customWidth="1"/>
-    <col min="4" max="4" width="23.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.44140625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="18.77734375" customWidth="1"/>
-    <col min="8" max="8" width="18.109375" customWidth="1"/>
     <col min="9" max="9" width="28.88671875" style="2" customWidth="1"/>
     <col min="10" max="10" width="35.88671875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="13.33203125" customWidth="1"/>
     <col min="12" max="12" width="43.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -775,7 +810,7 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
       <c r="F1" t="s">
@@ -802,16 +837,16 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>93</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
         <v>16</v>
@@ -820,16 +855,16 @@
         <v>17</v>
       </c>
       <c r="H2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I2" s="2">
-        <v>44155</v>
+        <v>18</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="J2" s="1">
-        <v>0.3833333333333333</v>
+        <v>0.34375</v>
       </c>
       <c r="K2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -837,34 +872,34 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
         <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>95</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H3" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="I3" s="2">
-        <v>44155</v>
+        <v>44272</v>
       </c>
       <c r="J3" s="1">
-        <v>0.47152777777777777</v>
+        <v>0.65625</v>
       </c>
       <c r="K3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -872,34 +907,34 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>94</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
         <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>95</v>
+        <v>25</v>
       </c>
       <c r="E4" t="s">
-        <v>68</v>
+        <v>26</v>
       </c>
       <c r="F4" t="s">
         <v>16</v>
       </c>
       <c r="G4" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="H4" t="s">
-        <v>49</v>
-      </c>
-      <c r="I4" s="2">
-        <v>44155</v>
+        <v>18</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="J4" s="1">
-        <v>0.88194444444444453</v>
+        <v>41548</v>
       </c>
       <c r="K4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -907,34 +942,34 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>96</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="E5" t="s">
-        <v>97</v>
+        <v>26</v>
       </c>
       <c r="F5" t="s">
         <v>16</v>
       </c>
       <c r="G5" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I5" s="2">
-        <v>44156</v>
+        <v>27</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="J5" s="1">
-        <v>0.47430555555555554</v>
+        <v>0.53125</v>
       </c>
       <c r="K5" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -942,34 +977,34 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>96</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>97</v>
+        <v>26</v>
       </c>
       <c r="F6" t="s">
         <v>16</v>
       </c>
       <c r="G6" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="H6" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I6" s="2">
-        <v>44156</v>
+        <v>44273</v>
       </c>
       <c r="J6" s="1">
-        <v>0.59166666666666667</v>
+        <v>0.59375</v>
       </c>
       <c r="K6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -977,34 +1012,34 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>92</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>93</v>
+        <v>31</v>
       </c>
       <c r="F7" t="s">
         <v>16</v>
       </c>
       <c r="G7" t="s">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="H7" t="s">
-        <v>26</v>
-      </c>
-      <c r="I7" s="2">
-        <v>44157</v>
+        <v>27</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="J7" s="1">
-        <v>0.71527777777777779</v>
+        <v>0.35694444444444445</v>
       </c>
       <c r="K7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -1012,34 +1047,34 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
         <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>99</v>
+        <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="F8" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="G8" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="H8" t="s">
-        <v>101</v>
+        <v>22</v>
       </c>
       <c r="I8" s="2">
-        <v>44162</v>
+        <v>44503</v>
       </c>
       <c r="J8" s="1">
-        <v>0.40625</v>
+        <v>0.52777777777777779</v>
       </c>
       <c r="K8" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -1047,34 +1082,34 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
         <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>99</v>
+        <v>14</v>
       </c>
       <c r="E9" t="s">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="G9" t="s">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="H9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I9" s="2">
-        <v>44162</v>
+        <v>44503</v>
       </c>
       <c r="J9" s="1">
-        <v>0.76388888888888884</v>
+        <v>0.7319444444444444</v>
       </c>
       <c r="K9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -1082,16 +1117,16 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>81</v>
+        <v>36</v>
       </c>
       <c r="C10" t="s">
         <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="E10" t="s">
-        <v>83</v>
+        <v>37</v>
       </c>
       <c r="F10" t="s">
         <v>16</v>
@@ -1100,16 +1135,16 @@
         <v>17</v>
       </c>
       <c r="H10" t="s">
-        <v>26</v>
-      </c>
-      <c r="I10" s="2">
-        <v>44201</v>
+        <v>18</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="J10" s="1">
-        <v>0.5083333333333333</v>
+        <v>0.38611111111111113</v>
       </c>
       <c r="K10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -1117,34 +1152,34 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>81</v>
+        <v>36</v>
       </c>
       <c r="C11" t="s">
         <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>82</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>83</v>
+        <v>14</v>
+      </c>
+      <c r="E11" t="s">
+        <v>37</v>
       </c>
       <c r="F11" t="s">
         <v>16</v>
       </c>
       <c r="G11" t="s">
-        <v>76</v>
+        <v>34</v>
       </c>
       <c r="H11" t="s">
-        <v>26</v>
-      </c>
-      <c r="I11" s="2">
-        <v>44201</v>
+        <v>27</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="J11" s="1">
-        <v>0.5131944444444444</v>
+        <v>0.52222222222222225</v>
       </c>
       <c r="K11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -1152,34 +1187,34 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>81</v>
+        <v>38</v>
       </c>
       <c r="C12" t="s">
         <v>13</v>
       </c>
       <c r="D12" t="s">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="E12" t="s">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="F12" t="s">
         <v>16</v>
       </c>
       <c r="G12" t="s">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="H12" t="s">
-        <v>26</v>
-      </c>
-      <c r="I12" s="2">
-        <v>44201</v>
+        <v>18</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="J12" s="1">
-        <v>0.72222222222222221</v>
+        <v>0.42430555555555555</v>
       </c>
       <c r="K12" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -1187,34 +1222,34 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>73</v>
+        <v>38</v>
       </c>
       <c r="C13" t="s">
         <v>13</v>
       </c>
       <c r="D13" t="s">
-        <v>74</v>
+        <v>39</v>
       </c>
       <c r="E13" t="s">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="F13" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="G13" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="H13" t="s">
-        <v>26</v>
-      </c>
-      <c r="I13" s="2">
-        <v>44209</v>
+        <v>41</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="J13" s="1">
-        <v>0.60555555555555551</v>
+        <v>0.7319444444444444</v>
       </c>
       <c r="K13" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -1222,34 +1257,34 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="C14" t="s">
         <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="E14" t="s">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="G14" t="s">
-        <v>76</v>
+        <v>17</v>
       </c>
       <c r="H14" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="I14" s="2">
-        <v>44209</v>
+        <v>44275</v>
       </c>
       <c r="J14" s="1">
-        <v>0.60555555555555551</v>
+        <v>0.55138888888888882</v>
       </c>
       <c r="K14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -1257,34 +1292,34 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="C15" t="s">
         <v>13</v>
       </c>
       <c r="D15" t="s">
-        <v>87</v>
+        <v>44</v>
       </c>
       <c r="E15" t="s">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="G15" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I15" s="2">
-        <v>44209</v>
+        <v>44276</v>
       </c>
       <c r="J15" s="1">
-        <v>0.47430555555555554</v>
+        <v>0.52361111111111114</v>
       </c>
       <c r="K15" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -1292,34 +1327,34 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="C16" t="s">
         <v>13</v>
       </c>
       <c r="D16" t="s">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="E16" t="s">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="F16" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="G16" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="H16" t="s">
-        <v>26</v>
-      </c>
-      <c r="I16" s="2">
-        <v>44209</v>
+        <v>18</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="J16" s="1">
-        <v>0.53125</v>
+        <v>0.43263888888888885</v>
       </c>
       <c r="K16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
@@ -1327,34 +1362,34 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="C17" t="s">
         <v>13</v>
       </c>
       <c r="D17" t="s">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="E17" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="F17" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="G17" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="H17" t="s">
-        <v>26</v>
-      </c>
-      <c r="I17" s="2">
-        <v>44210</v>
+        <v>27</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="J17" s="1">
-        <v>0.65486111111111112</v>
+        <v>0.48819444444444443</v>
       </c>
       <c r="K17" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
@@ -1362,34 +1397,34 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="C18" t="s">
         <v>13</v>
       </c>
       <c r="D18" t="s">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="E18" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="F18" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="G18" t="s">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="H18" t="s">
-        <v>26</v>
-      </c>
-      <c r="I18" s="2">
-        <v>44210</v>
+        <v>51</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="J18" s="1">
-        <v>0.65486111111111112</v>
+        <v>0.70972222222222225</v>
       </c>
       <c r="K18" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
@@ -1397,16 +1432,16 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="C19" t="s">
         <v>13</v>
       </c>
       <c r="D19" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="E19" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="F19" t="s">
         <v>16</v>
@@ -1415,16 +1450,16 @@
         <v>17</v>
       </c>
       <c r="H19" t="s">
-        <v>49</v>
-      </c>
-      <c r="I19" s="2">
-        <v>44211</v>
+        <v>27</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="J19" s="1">
-        <v>0.75694444444444453</v>
+        <v>0.52986111111111112</v>
       </c>
       <c r="K19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
@@ -1432,16 +1467,16 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="C20" t="s">
         <v>13</v>
       </c>
       <c r="D20" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="E20" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="F20" t="s">
         <v>16</v>
@@ -1450,16 +1485,16 @@
         <v>17</v>
       </c>
       <c r="H20" t="s">
-        <v>49</v>
-      </c>
-      <c r="I20" s="2">
-        <v>44211</v>
+        <v>18</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="J20" s="1">
-        <v>0.52986111111111112</v>
+        <v>0.65347222222222223</v>
       </c>
       <c r="K20" t="s">
-        <v>72</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
@@ -1467,34 +1502,34 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>107</v>
+        <v>52</v>
       </c>
       <c r="C21" t="s">
         <v>13</v>
       </c>
       <c r="D21" t="s">
-        <v>108</v>
+        <v>53</v>
       </c>
       <c r="E21" t="s">
-        <v>109</v>
+        <v>54</v>
       </c>
       <c r="F21" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="G21" t="s">
         <v>17</v>
       </c>
       <c r="H21" t="s">
-        <v>110</v>
-      </c>
-      <c r="I21" s="2">
-        <v>44211</v>
+        <v>27</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="J21" s="1">
-        <v>0.35694444444444445</v>
+        <v>0.75694444444444453</v>
       </c>
       <c r="K21" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
@@ -1502,34 +1537,34 @@
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>107</v>
+        <v>56</v>
       </c>
       <c r="C22" t="s">
         <v>13</v>
       </c>
       <c r="D22" t="s">
-        <v>108</v>
+        <v>57</v>
       </c>
       <c r="E22" t="s">
-        <v>109</v>
+        <v>58</v>
       </c>
       <c r="F22" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="G22" t="s">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="H22" t="s">
-        <v>26</v>
-      </c>
-      <c r="I22" s="2">
-        <v>44211</v>
+        <v>27</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="J22" s="1">
-        <v>0.52708333333333335</v>
+        <v>0.52986111111111112</v>
       </c>
       <c r="K22" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
@@ -1537,34 +1572,34 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>111</v>
+        <v>56</v>
       </c>
       <c r="C23" t="s">
         <v>13</v>
       </c>
       <c r="D23" t="s">
-        <v>112</v>
+        <v>57</v>
       </c>
       <c r="E23" t="s">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="F23" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="G23" t="s">
         <v>17</v>
       </c>
       <c r="H23" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I23" s="2">
-        <v>44217</v>
+        <v>44572</v>
       </c>
       <c r="J23" s="1">
-        <v>0.41250000000000003</v>
+        <v>0.60555555555555551</v>
       </c>
       <c r="K23" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
@@ -1572,34 +1607,34 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="C24" t="s">
         <v>13</v>
       </c>
       <c r="D24" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="E24" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="F24" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="G24" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H24" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I24" s="2">
-        <v>44217</v>
+        <v>44572</v>
       </c>
       <c r="J24" s="1">
-        <v>0.40625</v>
+        <v>0.76458333333333339</v>
       </c>
       <c r="K24" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
@@ -1607,34 +1642,34 @@
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>111</v>
+        <v>56</v>
       </c>
       <c r="C25" t="s">
         <v>13</v>
       </c>
       <c r="D25" t="s">
-        <v>112</v>
+        <v>60</v>
       </c>
       <c r="E25" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="F25" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="G25" t="s">
+        <v>17</v>
+      </c>
+      <c r="H25" t="s">
+        <v>18</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J25" s="1">
+        <v>0.65486111111111112</v>
+      </c>
+      <c r="K25" t="s">
         <v>20</v>
-      </c>
-      <c r="H25" t="s">
-        <v>49</v>
-      </c>
-      <c r="I25" s="2">
-        <v>44218</v>
-      </c>
-      <c r="J25" s="1">
-        <v>0.73055555555555562</v>
-      </c>
-      <c r="K25" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
@@ -1642,34 +1677,34 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="C26" t="s">
         <v>13</v>
       </c>
       <c r="D26" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="E26" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="F26" t="s">
         <v>16</v>
       </c>
       <c r="G26" t="s">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="H26" t="s">
-        <v>21</v>
-      </c>
-      <c r="I26" s="2">
-        <v>44223</v>
+        <v>27</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="J26" s="1">
-        <v>0.53333333333333333</v>
+        <v>0.72291666666666676</v>
       </c>
       <c r="K26" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
@@ -1677,34 +1712,34 @@
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="C27" t="s">
         <v>13</v>
       </c>
       <c r="D27" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="E27" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="F27" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="G27" t="s">
         <v>17</v>
       </c>
       <c r="H27" t="s">
-        <v>18</v>
-      </c>
-      <c r="I27" s="2">
-        <v>44224</v>
+        <v>51</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="J27" s="1">
-        <v>0.55763888888888891</v>
+        <v>0.5083333333333333</v>
       </c>
       <c r="K27" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
@@ -1712,34 +1747,34 @@
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="C28" t="s">
         <v>13</v>
       </c>
       <c r="D28" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="E28" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="F28" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="G28" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="H28" t="s">
-        <v>18</v>
-      </c>
-      <c r="I28" s="2">
-        <v>44224</v>
+        <v>27</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="J28" s="1">
-        <v>0.79861111111111116</v>
+        <v>0.57152777777777775</v>
       </c>
       <c r="K28" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
@@ -1747,34 +1782,34 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="C29" t="s">
         <v>13</v>
       </c>
       <c r="D29" t="s">
-        <v>14</v>
-      </c>
-      <c r="E29">
-        <v>12000</v>
+        <v>66</v>
+      </c>
+      <c r="E29" t="s">
+        <v>61</v>
       </c>
       <c r="F29" t="s">
         <v>16</v>
       </c>
       <c r="G29" t="s">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="H29" t="s">
         <v>18</v>
       </c>
       <c r="I29" s="2">
-        <v>44240</v>
+        <v>44258</v>
       </c>
       <c r="J29" s="1">
-        <v>0.38611111111111113</v>
+        <v>0.75694444444444453</v>
       </c>
       <c r="K29" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
@@ -1782,34 +1817,34 @@
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="C30" t="s">
         <v>13</v>
       </c>
       <c r="D30" t="s">
-        <v>14</v>
-      </c>
-      <c r="E30">
-        <v>12000</v>
+        <v>69</v>
+      </c>
+      <c r="E30" t="s">
+        <v>70</v>
       </c>
       <c r="F30" t="s">
         <v>16</v>
       </c>
       <c r="G30" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="H30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I30" s="2">
-        <v>44241</v>
+        <v>44522</v>
       </c>
       <c r="J30" s="1">
-        <v>0.52222222222222225</v>
+        <v>0.46666666666666662</v>
       </c>
       <c r="K30" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
@@ -1817,34 +1852,34 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>102</v>
+        <v>68</v>
       </c>
       <c r="C31" t="s">
         <v>13</v>
       </c>
       <c r="D31" t="s">
-        <v>103</v>
+        <v>69</v>
       </c>
       <c r="E31" t="s">
-        <v>104</v>
+        <v>70</v>
       </c>
       <c r="F31" t="s">
         <v>16</v>
       </c>
       <c r="G31" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="H31" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I31" s="2">
-        <v>44256</v>
+        <v>44524</v>
       </c>
       <c r="J31" s="1">
-        <v>0.47430555555555554</v>
+        <v>0.61388888888888882</v>
       </c>
       <c r="K31" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
@@ -1852,34 +1887,34 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>102</v>
+        <v>71</v>
       </c>
       <c r="C32" t="s">
         <v>13</v>
       </c>
       <c r="D32" t="s">
-        <v>103</v>
+        <v>69</v>
       </c>
       <c r="E32" t="s">
-        <v>104</v>
+        <v>72</v>
       </c>
       <c r="F32" t="s">
         <v>16</v>
       </c>
       <c r="G32" t="s">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="H32" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="I32" s="2">
-        <v>44256</v>
+        <v>44520</v>
       </c>
       <c r="J32" s="1">
-        <v>0.75694444444444453</v>
+        <v>0.43263888888888885</v>
       </c>
       <c r="K32" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
@@ -1887,34 +1922,34 @@
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>105</v>
+        <v>71</v>
       </c>
       <c r="C33" t="s">
         <v>13</v>
       </c>
       <c r="D33" t="s">
-        <v>106</v>
+        <v>69</v>
       </c>
       <c r="E33" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="F33" t="s">
         <v>16</v>
       </c>
       <c r="G33" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="H33" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I33" s="2">
-        <v>44256</v>
+        <v>44521</v>
       </c>
       <c r="J33" s="1">
-        <v>0.59930555555555554</v>
+        <v>0.48055555555555557</v>
       </c>
       <c r="K33" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
@@ -1922,34 +1957,34 @@
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>105</v>
+        <v>73</v>
       </c>
       <c r="C34" t="s">
         <v>13</v>
       </c>
       <c r="D34" t="s">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="E34" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="F34" t="s">
         <v>16</v>
       </c>
       <c r="G34" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="H34" t="s">
-        <v>26</v>
-      </c>
-      <c r="I34" s="2">
-        <v>44256</v>
+        <v>51</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="J34" s="1">
-        <v>0.79999999999999993</v>
+        <v>0.75694444444444453</v>
       </c>
       <c r="K34" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
@@ -1957,16 +1992,16 @@
         <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="C35" t="s">
         <v>13</v>
       </c>
       <c r="D35" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="E35" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="F35" t="s">
         <v>16</v>
@@ -1975,16 +2010,16 @@
         <v>17</v>
       </c>
       <c r="H35" t="s">
-        <v>49</v>
-      </c>
-      <c r="I35" s="2">
-        <v>44257</v>
+        <v>51</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="J35" s="1">
-        <v>0.5083333333333333</v>
+        <v>0.52986111111111112</v>
       </c>
       <c r="K35" t="s">
-        <v>19</v>
+        <v>77</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
@@ -1992,34 +2027,34 @@
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="C36" t="s">
         <v>13</v>
       </c>
       <c r="D36" t="s">
-        <v>63</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>58</v>
+        <v>79</v>
+      </c>
+      <c r="E36" t="s">
+        <v>80</v>
       </c>
       <c r="F36" t="s">
         <v>16</v>
       </c>
       <c r="G36" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="H36" t="s">
-        <v>26</v>
-      </c>
-      <c r="I36" s="2">
-        <v>44257</v>
+        <v>27</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>81</v>
       </c>
       <c r="J36" s="1">
-        <v>0.57152777777777775</v>
+        <v>0.60555555555555551</v>
       </c>
       <c r="K36" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
@@ -2027,34 +2062,34 @@
         <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>111</v>
+        <v>78</v>
       </c>
       <c r="C37" t="s">
         <v>13</v>
       </c>
       <c r="D37" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="E37" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="F37" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="G37" t="s">
-        <v>17</v>
+        <v>82</v>
       </c>
       <c r="H37" t="s">
-        <v>26</v>
-      </c>
-      <c r="I37" s="2">
-        <v>44257</v>
+        <v>41</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>81</v>
       </c>
       <c r="J37" s="1">
         <v>0.60555555555555551</v>
       </c>
       <c r="K37" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
@@ -2062,34 +2097,34 @@
         <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="C38" t="s">
         <v>13</v>
       </c>
       <c r="D38" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="E38" t="s">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="F38" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="G38" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="H38" t="s">
-        <v>18</v>
-      </c>
-      <c r="I38" s="2">
-        <v>44258</v>
+        <v>27</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="J38" s="1">
-        <v>0.75694444444444453</v>
+        <v>0.65486111111111112</v>
       </c>
       <c r="K38" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
@@ -2097,34 +2132,34 @@
         <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>111</v>
+        <v>83</v>
       </c>
       <c r="C39" t="s">
         <v>13</v>
       </c>
       <c r="D39" t="s">
-        <v>63</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>58</v>
+        <v>84</v>
+      </c>
+      <c r="E39" t="s">
+        <v>85</v>
       </c>
       <c r="F39" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="G39" t="s">
-        <v>33</v>
+        <v>87</v>
       </c>
       <c r="H39" t="s">
-        <v>26</v>
-      </c>
-      <c r="I39" s="2">
-        <v>44258</v>
+        <v>27</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="J39" s="1">
-        <v>0.64861111111111114</v>
+        <v>0.65486111111111112</v>
       </c>
       <c r="K39" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
@@ -2132,16 +2167,16 @@
         <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="C40" t="s">
         <v>13</v>
       </c>
       <c r="D40" t="s">
-        <v>14</v>
+        <v>89</v>
       </c>
       <c r="E40" t="s">
-        <v>15</v>
+        <v>90</v>
       </c>
       <c r="F40" t="s">
         <v>16</v>
@@ -2150,16 +2185,16 @@
         <v>17</v>
       </c>
       <c r="H40" t="s">
-        <v>18</v>
-      </c>
-      <c r="I40" s="2">
-        <v>44271</v>
+        <v>27</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="J40" s="1">
-        <v>0.34375</v>
+        <v>0.5083333333333333</v>
       </c>
       <c r="K40" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
@@ -2167,34 +2202,34 @@
         <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>23</v>
+        <v>88</v>
       </c>
       <c r="C41" t="s">
         <v>13</v>
       </c>
       <c r="D41" t="s">
-        <v>24</v>
+        <v>89</v>
       </c>
       <c r="E41" t="s">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="F41" t="s">
         <v>16</v>
       </c>
       <c r="G41" t="s">
-        <v>17</v>
+        <v>82</v>
       </c>
       <c r="H41" t="s">
-        <v>18</v>
-      </c>
-      <c r="I41" s="2">
-        <v>44271</v>
+        <v>27</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="J41" s="1">
-        <v>41548</v>
+        <v>0.5131944444444444</v>
       </c>
       <c r="K41" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
@@ -2202,34 +2237,34 @@
         <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>23</v>
+        <v>88</v>
       </c>
       <c r="C42" t="s">
         <v>13</v>
       </c>
       <c r="D42" t="s">
-        <v>24</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>25</v>
+        <v>89</v>
+      </c>
+      <c r="E42" t="s">
+        <v>90</v>
       </c>
       <c r="F42" t="s">
         <v>16</v>
       </c>
       <c r="G42" t="s">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="H42" t="s">
-        <v>26</v>
-      </c>
-      <c r="I42" s="2">
-        <v>44271</v>
+        <v>27</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="J42" s="1">
-        <v>0.53125</v>
+        <v>0.72222222222222221</v>
       </c>
       <c r="K42" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
@@ -2237,19 +2272,19 @@
         <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>34</v>
+        <v>92</v>
       </c>
       <c r="C43" t="s">
         <v>13</v>
       </c>
       <c r="D43" t="s">
-        <v>14</v>
+        <v>89</v>
       </c>
       <c r="E43" t="s">
-        <v>35</v>
+        <v>93</v>
       </c>
       <c r="F43" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="G43" t="s">
         <v>17</v>
@@ -2257,14 +2292,14 @@
       <c r="H43" t="s">
         <v>18</v>
       </c>
-      <c r="I43" s="2">
-        <v>44271</v>
+      <c r="I43" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="J43" s="1">
-        <v>0.38611111111111113</v>
+        <v>0.55763888888888891</v>
       </c>
       <c r="K43" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
@@ -2272,34 +2307,34 @@
         <v>11</v>
       </c>
       <c r="B44" t="s">
-        <v>34</v>
+        <v>92</v>
       </c>
       <c r="C44" t="s">
         <v>13</v>
       </c>
       <c r="D44" t="s">
-        <v>14</v>
+        <v>89</v>
       </c>
       <c r="E44" t="s">
-        <v>35</v>
+        <v>93</v>
       </c>
       <c r="F44" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="G44" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="H44" t="s">
-        <v>26</v>
-      </c>
-      <c r="I44" s="2">
-        <v>44271</v>
+        <v>18</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="J44" s="1">
-        <v>0.52222222222222225</v>
+        <v>0.79861111111111116</v>
       </c>
       <c r="K44" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
@@ -2307,34 +2342,34 @@
         <v>11</v>
       </c>
       <c r="B45" t="s">
-        <v>36</v>
+        <v>95</v>
       </c>
       <c r="C45" t="s">
         <v>13</v>
       </c>
       <c r="D45" t="s">
-        <v>37</v>
+        <v>96</v>
       </c>
       <c r="E45" t="s">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c r="F45" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="G45" t="s">
         <v>17</v>
       </c>
       <c r="H45" t="s">
-        <v>18</v>
-      </c>
-      <c r="I45" s="2">
-        <v>44271</v>
+        <v>27</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>81</v>
       </c>
       <c r="J45" s="1">
-        <v>0.42430555555555555</v>
+        <v>0.47430555555555554</v>
       </c>
       <c r="K45" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
@@ -2342,34 +2377,34 @@
         <v>11</v>
       </c>
       <c r="B46" t="s">
-        <v>36</v>
+        <v>95</v>
       </c>
       <c r="C46" t="s">
         <v>13</v>
       </c>
       <c r="D46" t="s">
-        <v>37</v>
+        <v>96</v>
       </c>
       <c r="E46" t="s">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c r="F46" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G46" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H46" t="s">
-        <v>39</v>
-      </c>
-      <c r="I46" s="2">
-        <v>44271</v>
+        <v>27</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>81</v>
       </c>
       <c r="J46" s="1">
-        <v>0.7319444444444444</v>
+        <v>0.53125</v>
       </c>
       <c r="K46" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
@@ -2377,34 +2412,34 @@
         <v>11</v>
       </c>
       <c r="B47" t="s">
-        <v>12</v>
+        <v>98</v>
       </c>
       <c r="C47" t="s">
         <v>13</v>
       </c>
       <c r="D47" t="s">
-        <v>14</v>
+        <v>99</v>
       </c>
       <c r="E47" t="s">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="F47" t="s">
         <v>16</v>
       </c>
       <c r="G47" t="s">
+        <v>17</v>
+      </c>
+      <c r="H47" t="s">
+        <v>18</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="J47" s="1">
+        <v>0.59166666666666667</v>
+      </c>
+      <c r="K47" t="s">
         <v>20</v>
-      </c>
-      <c r="H47" t="s">
-        <v>21</v>
-      </c>
-      <c r="I47" s="2">
-        <v>44272</v>
-      </c>
-      <c r="J47" s="1">
-        <v>0.65625</v>
-      </c>
-      <c r="K47" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
@@ -2412,34 +2447,34 @@
         <v>11</v>
       </c>
       <c r="B48" t="s">
-        <v>23</v>
+        <v>98</v>
       </c>
       <c r="C48" t="s">
         <v>13</v>
       </c>
       <c r="D48" t="s">
-        <v>24</v>
+        <v>99</v>
       </c>
       <c r="E48" t="s">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="F48" t="s">
         <v>16</v>
       </c>
       <c r="G48" t="s">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="H48" t="s">
         <v>18</v>
       </c>
-      <c r="I48" s="2">
-        <v>44273</v>
+      <c r="I48" s="2" t="s">
+        <v>101</v>
       </c>
       <c r="J48" s="1">
-        <v>0.59375</v>
+        <v>0.71527777777777779</v>
       </c>
       <c r="K48" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
@@ -2447,16 +2482,16 @@
         <v>11</v>
       </c>
       <c r="B49" t="s">
-        <v>41</v>
+        <v>102</v>
       </c>
       <c r="C49" t="s">
         <v>13</v>
       </c>
       <c r="D49" t="s">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="E49" t="s">
-        <v>43</v>
+        <v>103</v>
       </c>
       <c r="F49" t="s">
         <v>16</v>
@@ -2465,16 +2500,16 @@
         <v>17</v>
       </c>
       <c r="H49" t="s">
-        <v>18</v>
-      </c>
-      <c r="I49" s="2">
-        <v>44275</v>
+        <v>27</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="J49" s="1">
-        <v>0.55138888888888882</v>
+        <v>0.3833333333333333</v>
       </c>
       <c r="K49" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
@@ -2482,34 +2517,34 @@
         <v>11</v>
       </c>
       <c r="B50" t="s">
-        <v>41</v>
+        <v>102</v>
       </c>
       <c r="C50" t="s">
         <v>13</v>
       </c>
       <c r="D50" t="s">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="E50" t="s">
-        <v>43</v>
+        <v>103</v>
       </c>
       <c r="F50" t="s">
         <v>16</v>
       </c>
       <c r="G50" t="s">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="H50" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I50" s="2">
-        <v>44276</v>
+        <v>44157</v>
       </c>
       <c r="J50" s="1">
-        <v>0.52361111111111114</v>
+        <v>0.71527777777777779</v>
       </c>
       <c r="K50" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
@@ -2517,16 +2552,16 @@
         <v>11</v>
       </c>
       <c r="B51" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="C51" t="s">
         <v>13</v>
       </c>
       <c r="D51" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="E51" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="F51" t="s">
         <v>16</v>
@@ -2535,16 +2570,16 @@
         <v>17</v>
       </c>
       <c r="H51" t="s">
-        <v>18</v>
-      </c>
-      <c r="I51" s="2">
-        <v>44277</v>
+        <v>51</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="J51" s="1">
-        <v>0.59166666666666667</v>
+        <v>0.47152777777777777</v>
       </c>
       <c r="K51" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
@@ -2552,34 +2587,34 @@
         <v>11</v>
       </c>
       <c r="B52" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="C52" t="s">
         <v>13</v>
       </c>
       <c r="D52" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="E52" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="F52" t="s">
         <v>16</v>
       </c>
       <c r="G52" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="H52" t="s">
-        <v>18</v>
-      </c>
-      <c r="I52" s="2">
-        <v>44277</v>
+        <v>51</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="J52" s="1">
-        <v>0.71527777777777779</v>
+        <v>0.88194444444444453</v>
       </c>
       <c r="K52" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
@@ -2587,16 +2622,16 @@
         <v>11</v>
       </c>
       <c r="B53" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C53" t="s">
         <v>13</v>
       </c>
       <c r="D53" t="s">
-        <v>114</v>
+        <v>69</v>
       </c>
       <c r="E53" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="F53" t="s">
         <v>16</v>
@@ -2605,16 +2640,16 @@
         <v>17</v>
       </c>
       <c r="H53" t="s">
-        <v>49</v>
-      </c>
-      <c r="I53" s="2">
-        <v>44278</v>
+        <v>27</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>109</v>
       </c>
       <c r="J53" s="1">
-        <v>0.34166666666666662</v>
+        <v>0.47430555555555554</v>
       </c>
       <c r="K53" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
@@ -2622,34 +2657,34 @@
         <v>11</v>
       </c>
       <c r="B54" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C54" t="s">
         <v>13</v>
       </c>
       <c r="D54" t="s">
-        <v>114</v>
+        <v>69</v>
       </c>
       <c r="E54" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="F54" t="s">
         <v>16</v>
       </c>
       <c r="G54" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="H54" t="s">
-        <v>49</v>
-      </c>
-      <c r="I54" s="2">
-        <v>44278</v>
+        <v>27</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>109</v>
       </c>
       <c r="J54" s="1">
-        <v>0.52361111111111114</v>
+        <v>0.59166666666666667</v>
       </c>
       <c r="K54" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
@@ -2657,16 +2692,16 @@
         <v>11</v>
       </c>
       <c r="B55" t="s">
-        <v>29</v>
+        <v>110</v>
       </c>
       <c r="C55" t="s">
         <v>13</v>
       </c>
       <c r="D55" t="s">
-        <v>14</v>
-      </c>
-      <c r="E55">
-        <v>7890</v>
+        <v>111</v>
+      </c>
+      <c r="E55" t="s">
+        <v>112</v>
       </c>
       <c r="F55" t="s">
         <v>16</v>
@@ -2675,16 +2710,16 @@
         <v>17</v>
       </c>
       <c r="H55" t="s">
-        <v>26</v>
-      </c>
-      <c r="I55" s="2">
-        <v>44297</v>
+        <v>113</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>114</v>
       </c>
       <c r="J55" s="1">
-        <v>0.52361111111111114</v>
+        <v>0.40625</v>
       </c>
       <c r="K55" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
@@ -2692,34 +2727,34 @@
         <v>11</v>
       </c>
       <c r="B56" t="s">
-        <v>29</v>
+        <v>110</v>
       </c>
       <c r="C56" t="s">
         <v>13</v>
       </c>
       <c r="D56" t="s">
-        <v>14</v>
-      </c>
-      <c r="E56" s="3">
-        <v>7890</v>
+        <v>111</v>
+      </c>
+      <c r="E56" t="s">
+        <v>112</v>
       </c>
       <c r="F56" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="G56" t="s">
-        <v>32</v>
+        <v>87</v>
       </c>
       <c r="H56" t="s">
-        <v>21</v>
-      </c>
-      <c r="I56" s="2">
-        <v>44297</v>
+        <v>27</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>114</v>
       </c>
       <c r="J56" s="1">
-        <v>0.71666666666666667</v>
+        <v>0.76388888888888884</v>
       </c>
       <c r="K56" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
@@ -2727,34 +2762,34 @@
         <v>11</v>
       </c>
       <c r="B57" t="s">
-        <v>29</v>
+        <v>115</v>
       </c>
       <c r="C57" t="s">
         <v>13</v>
       </c>
       <c r="D57" t="s">
-        <v>14</v>
-      </c>
-      <c r="E57">
-        <v>7890</v>
+        <v>116</v>
+      </c>
+      <c r="E57" t="s">
+        <v>117</v>
       </c>
       <c r="F57" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="G57" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="H57" t="s">
-        <v>21</v>
-      </c>
-      <c r="I57" s="2">
-        <v>44299</v>
+        <v>27</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>118</v>
       </c>
       <c r="J57" s="1">
-        <v>0.75694444444444453</v>
+        <v>0.47430555555555554</v>
       </c>
       <c r="K57" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
@@ -2762,34 +2797,34 @@
         <v>11</v>
       </c>
       <c r="B58" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="C58" t="s">
         <v>13</v>
       </c>
       <c r="D58" t="s">
+        <v>116</v>
+      </c>
+      <c r="E58" t="s">
+        <v>117</v>
+      </c>
+      <c r="F58" t="s">
+        <v>16</v>
+      </c>
+      <c r="G58" t="s">
+        <v>87</v>
+      </c>
+      <c r="H58" t="s">
+        <v>51</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="J58" s="1">
+        <v>0.75694444444444453</v>
+      </c>
+      <c r="K58" t="s">
         <v>42</v>
-      </c>
-      <c r="E58">
-        <v>30000</v>
-      </c>
-      <c r="F58" t="s">
-        <v>16</v>
-      </c>
-      <c r="G58" t="s">
-        <v>17</v>
-      </c>
-      <c r="H58" t="s">
-        <v>18</v>
-      </c>
-      <c r="I58" s="2">
-        <v>44305</v>
-      </c>
-      <c r="J58" s="1">
-        <v>0.55138888888888882</v>
-      </c>
-      <c r="K58" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
@@ -2797,34 +2832,34 @@
         <v>11</v>
       </c>
       <c r="B59" t="s">
-        <v>41</v>
+        <v>119</v>
       </c>
       <c r="C59" t="s">
         <v>13</v>
       </c>
       <c r="D59" t="s">
-        <v>42</v>
-      </c>
-      <c r="E59">
-        <v>3000</v>
+        <v>120</v>
+      </c>
+      <c r="E59" t="s">
+        <v>54</v>
       </c>
       <c r="F59" t="s">
         <v>16</v>
       </c>
       <c r="G59" t="s">
+        <v>17</v>
+      </c>
+      <c r="H59" t="s">
+        <v>18</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="J59" s="1">
+        <v>0.59930555555555554</v>
+      </c>
+      <c r="K59" t="s">
         <v>20</v>
-      </c>
-      <c r="H59" t="s">
-        <v>26</v>
-      </c>
-      <c r="I59" s="2">
-        <v>44306</v>
-      </c>
-      <c r="J59" s="1">
-        <v>0.52361111111111114</v>
-      </c>
-      <c r="K59" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
@@ -2832,34 +2867,34 @@
         <v>11</v>
       </c>
       <c r="B60" t="s">
-        <v>36</v>
+        <v>119</v>
       </c>
       <c r="C60" t="s">
         <v>13</v>
       </c>
       <c r="D60" t="s">
-        <v>37</v>
-      </c>
-      <c r="E60">
-        <v>12000</v>
+        <v>120</v>
+      </c>
+      <c r="E60" t="s">
+        <v>54</v>
       </c>
       <c r="F60" t="s">
         <v>16</v>
       </c>
       <c r="G60" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="H60" t="s">
-        <v>18</v>
-      </c>
-      <c r="I60" s="2">
-        <v>44388</v>
+        <v>27</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>118</v>
       </c>
       <c r="J60" s="1">
-        <v>0.42430555555555555</v>
+        <v>0.79999999999999993</v>
       </c>
       <c r="K60" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
@@ -2867,34 +2902,34 @@
         <v>11</v>
       </c>
       <c r="B61" t="s">
-        <v>36</v>
+        <v>121</v>
       </c>
       <c r="C61" t="s">
         <v>13</v>
       </c>
       <c r="D61" t="s">
-        <v>37</v>
-      </c>
-      <c r="E61">
-        <v>12000</v>
+        <v>122</v>
+      </c>
+      <c r="E61" t="s">
+        <v>123</v>
       </c>
       <c r="F61" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G61" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="H61" t="s">
-        <v>39</v>
-      </c>
-      <c r="I61" s="2">
-        <v>44388</v>
+        <v>124</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="J61" s="1">
-        <v>0.7319444444444444</v>
+        <v>0.35694444444444445</v>
       </c>
       <c r="K61" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
@@ -2902,34 +2937,34 @@
         <v>11</v>
       </c>
       <c r="B62" t="s">
-        <v>50</v>
+        <v>121</v>
       </c>
       <c r="C62" t="s">
         <v>13</v>
       </c>
       <c r="D62" t="s">
-        <v>51</v>
-      </c>
-      <c r="E62">
-        <v>17430</v>
+        <v>122</v>
+      </c>
+      <c r="E62" t="s">
+        <v>123</v>
       </c>
       <c r="F62" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="G62" t="s">
-        <v>17</v>
+        <v>87</v>
       </c>
       <c r="H62" t="s">
-        <v>26</v>
-      </c>
-      <c r="I62" s="2">
-        <v>44388</v>
+        <v>27</v>
+      </c>
+      <c r="I62" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="J62" s="1">
-        <v>0.52986111111111112</v>
+        <v>0.52708333333333335</v>
       </c>
       <c r="K62" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
@@ -2937,34 +2972,34 @@
         <v>11</v>
       </c>
       <c r="B63" t="s">
-        <v>50</v>
+        <v>125</v>
       </c>
       <c r="C63" t="s">
         <v>13</v>
       </c>
       <c r="D63" t="s">
-        <v>51</v>
-      </c>
-      <c r="E63" s="3">
-        <v>17430</v>
+        <v>126</v>
+      </c>
+      <c r="E63" t="s">
+        <v>97</v>
       </c>
       <c r="F63" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="G63" t="s">
         <v>17</v>
       </c>
       <c r="H63" t="s">
-        <v>18</v>
-      </c>
-      <c r="I63" s="2">
-        <v>44389</v>
+        <v>27</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>127</v>
       </c>
       <c r="J63" s="1">
-        <v>0.65347222222222223</v>
+        <v>0.41250000000000003</v>
       </c>
       <c r="K63" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
@@ -2972,34 +3007,34 @@
         <v>11</v>
       </c>
       <c r="B64" t="s">
-        <v>50</v>
+        <v>125</v>
       </c>
       <c r="C64" t="s">
         <v>13</v>
       </c>
       <c r="D64" t="s">
+        <v>126</v>
+      </c>
+      <c r="E64" t="s">
+        <v>97</v>
+      </c>
+      <c r="F64" t="s">
+        <v>33</v>
+      </c>
+      <c r="G64" t="s">
+        <v>21</v>
+      </c>
+      <c r="H64" t="s">
         <v>51</v>
       </c>
-      <c r="E64">
-        <v>17430</v>
-      </c>
-      <c r="F64" t="s">
-        <v>16</v>
-      </c>
-      <c r="G64" t="s">
-        <v>17</v>
-      </c>
-      <c r="H64" t="s">
-        <v>26</v>
-      </c>
       <c r="I64" s="2">
-        <v>44390</v>
+        <v>44218</v>
       </c>
       <c r="J64" s="1">
-        <v>0.75694444444444453</v>
+        <v>0.73055555555555562</v>
       </c>
       <c r="K64" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
@@ -3007,16 +3042,16 @@
         <v>11</v>
       </c>
       <c r="B65" t="s">
-        <v>44</v>
+        <v>125</v>
       </c>
       <c r="C65" t="s">
         <v>13</v>
       </c>
       <c r="D65" t="s">
-        <v>45</v>
-      </c>
-      <c r="E65">
-        <v>12400</v>
+        <v>66</v>
+      </c>
+      <c r="E65" t="s">
+        <v>61</v>
       </c>
       <c r="F65" t="s">
         <v>16</v>
@@ -3025,16 +3060,16 @@
         <v>17</v>
       </c>
       <c r="H65" t="s">
-        <v>18</v>
-      </c>
-      <c r="I65" s="2">
-        <v>44454</v>
+        <v>27</v>
+      </c>
+      <c r="I65" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="J65" s="1">
-        <v>0.43263888888888885</v>
+        <v>0.60555555555555551</v>
       </c>
       <c r="K65" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
@@ -3042,34 +3077,34 @@
         <v>11</v>
       </c>
       <c r="B66" t="s">
-        <v>44</v>
+        <v>125</v>
       </c>
       <c r="C66" t="s">
         <v>13</v>
       </c>
       <c r="D66" t="s">
-        <v>45</v>
-      </c>
-      <c r="E66">
-        <v>12400</v>
+        <v>66</v>
+      </c>
+      <c r="E66" t="s">
+        <v>61</v>
       </c>
       <c r="F66" t="s">
         <v>16</v>
       </c>
       <c r="G66" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H66" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I66" s="2">
-        <v>44455</v>
+        <v>44258</v>
       </c>
       <c r="J66" s="1">
-        <v>0.48819444444444443</v>
+        <v>0.64861111111111114</v>
       </c>
       <c r="K66" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
@@ -3077,34 +3112,34 @@
         <v>11</v>
       </c>
       <c r="B67" t="s">
-        <v>44</v>
+        <v>128</v>
       </c>
       <c r="C67" t="s">
         <v>13</v>
       </c>
       <c r="D67" t="s">
-        <v>45</v>
-      </c>
-      <c r="E67">
-        <v>12400</v>
+        <v>129</v>
+      </c>
+      <c r="E67" t="s">
+        <v>130</v>
       </c>
       <c r="F67" t="s">
         <v>16</v>
       </c>
       <c r="G67" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="H67" t="s">
-        <v>49</v>
-      </c>
-      <c r="I67" s="2">
-        <v>44455</v>
+        <v>51</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>131</v>
       </c>
       <c r="J67" s="1">
-        <v>0.70972222222222225</v>
+        <v>0.34166666666666662</v>
       </c>
       <c r="K67" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
@@ -3112,34 +3147,34 @@
         <v>11</v>
       </c>
       <c r="B68" t="s">
-        <v>54</v>
+        <v>128</v>
       </c>
       <c r="C68" t="s">
         <v>13</v>
       </c>
       <c r="D68" t="s">
-        <v>55</v>
-      </c>
-      <c r="E68">
-        <v>12000</v>
+        <v>129</v>
+      </c>
+      <c r="E68" t="s">
+        <v>130</v>
       </c>
       <c r="F68" t="s">
         <v>16</v>
       </c>
       <c r="G68" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="H68" t="s">
-        <v>26</v>
-      </c>
-      <c r="I68" s="2">
-        <v>44474</v>
+        <v>51</v>
+      </c>
+      <c r="I68" s="2" t="s">
+        <v>131</v>
       </c>
       <c r="J68" s="1">
-        <v>0.52986111111111112</v>
+        <v>0.52361111111111114</v>
       </c>
       <c r="K68" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
@@ -3147,16 +3182,16 @@
         <v>11</v>
       </c>
       <c r="B69" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="C69" t="s">
         <v>13</v>
       </c>
       <c r="D69" t="s">
-        <v>55</v>
-      </c>
-      <c r="E69" s="3">
-        <v>12000</v>
+        <v>14</v>
+      </c>
+      <c r="E69" t="s">
+        <v>15</v>
       </c>
       <c r="F69" t="s">
         <v>16</v>
@@ -3168,13 +3203,13 @@
         <v>18</v>
       </c>
       <c r="I69" s="2">
-        <v>44474</v>
+        <v>44217</v>
       </c>
       <c r="J69" s="1">
-        <v>0.60555555555555551</v>
+        <v>0.40625</v>
       </c>
       <c r="K69" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
@@ -3182,34 +3217,34 @@
         <v>11</v>
       </c>
       <c r="B70" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="C70" t="s">
         <v>13</v>
       </c>
       <c r="D70" t="s">
-        <v>55</v>
-      </c>
-      <c r="E70" s="3">
-        <v>12000</v>
+        <v>14</v>
+      </c>
+      <c r="E70" t="s">
+        <v>15</v>
       </c>
       <c r="F70" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="G70" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H70" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I70" s="2">
-        <v>44476</v>
+        <v>44223</v>
       </c>
       <c r="J70" s="1">
-        <v>0.76458333333333339</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="K70" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.3">
@@ -3217,16 +3252,16 @@
         <v>11</v>
       </c>
       <c r="B71" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C71" t="s">
         <v>13</v>
       </c>
       <c r="D71" t="s">
-        <v>14</v>
-      </c>
-      <c r="E71" t="s">
-        <v>30</v>
+        <v>25</v>
+      </c>
+      <c r="E71">
+        <v>2345</v>
       </c>
       <c r="F71" t="s">
         <v>16</v>
@@ -3235,16 +3270,16 @@
         <v>17</v>
       </c>
       <c r="H71" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I71" s="2">
-        <v>44502</v>
+        <v>44549</v>
       </c>
       <c r="J71" s="1">
-        <v>0.35694444444444445</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="K71" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
@@ -3252,34 +3287,34 @@
         <v>11</v>
       </c>
       <c r="B72" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C72" t="s">
         <v>13</v>
       </c>
       <c r="D72" t="s">
-        <v>14</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
+      </c>
+      <c r="E72">
+        <v>2345</v>
       </c>
       <c r="F72" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="G72" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="H72" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="I72" s="2">
-        <v>44503</v>
+        <v>44550</v>
       </c>
       <c r="J72" s="1">
-        <v>0.52777777777777779</v>
+        <v>0.56180555555555556</v>
       </c>
       <c r="K72" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
@@ -3287,34 +3322,34 @@
         <v>11</v>
       </c>
       <c r="B73" t="s">
+        <v>24</v>
+      </c>
+      <c r="C73" t="s">
+        <v>13</v>
+      </c>
+      <c r="D73" t="s">
+        <v>25</v>
+      </c>
+      <c r="E73">
+        <v>2345</v>
+      </c>
+      <c r="F73" t="s">
+        <v>16</v>
+      </c>
+      <c r="G73" t="s">
         <v>29</v>
       </c>
-      <c r="C73" t="s">
-        <v>13</v>
-      </c>
-      <c r="D73" t="s">
-        <v>14</v>
-      </c>
-      <c r="E73" t="s">
-        <v>30</v>
-      </c>
-      <c r="F73" t="s">
-        <v>31</v>
-      </c>
-      <c r="G73" t="s">
-        <v>33</v>
-      </c>
       <c r="H73" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I73" s="2">
-        <v>44503</v>
+        <v>44550</v>
       </c>
       <c r="J73" s="1">
-        <v>0.7319444444444444</v>
+        <v>1</v>
       </c>
       <c r="K73" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
@@ -3322,16 +3357,16 @@
         <v>11</v>
       </c>
       <c r="B74" t="s">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="C74" t="s">
         <v>13</v>
       </c>
       <c r="D74" t="s">
-        <v>65</v>
-      </c>
-      <c r="E74" t="s">
-        <v>68</v>
+        <v>14</v>
+      </c>
+      <c r="E74">
+        <v>7890</v>
       </c>
       <c r="F74" t="s">
         <v>16</v>
@@ -3340,16 +3375,16 @@
         <v>17</v>
       </c>
       <c r="H74" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I74" s="2">
-        <v>44520</v>
+        <v>44297</v>
       </c>
       <c r="J74" s="1">
-        <v>0.43263888888888885</v>
+        <v>0.52361111111111114</v>
       </c>
       <c r="K74" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.3">
@@ -3357,34 +3392,34 @@
         <v>11</v>
       </c>
       <c r="B75" t="s">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="C75" t="s">
         <v>13</v>
       </c>
       <c r="D75" t="s">
-        <v>65</v>
-      </c>
-      <c r="E75" t="s">
-        <v>68</v>
+        <v>14</v>
+      </c>
+      <c r="E75">
+        <v>7890</v>
       </c>
       <c r="F75" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="G75" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H75" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I75" s="2">
-        <v>44521</v>
+        <v>44297</v>
       </c>
       <c r="J75" s="1">
-        <v>0.48055555555555557</v>
+        <v>0.71666666666666667</v>
       </c>
       <c r="K75" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
@@ -3392,34 +3427,34 @@
         <v>11</v>
       </c>
       <c r="B76" t="s">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="C76" t="s">
         <v>13</v>
       </c>
       <c r="D76" t="s">
-        <v>65</v>
-      </c>
-      <c r="E76" t="s">
-        <v>66</v>
+        <v>14</v>
+      </c>
+      <c r="E76">
+        <v>7890</v>
       </c>
       <c r="F76" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="G76" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="H76" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I76" s="2">
-        <v>44522</v>
+        <v>44299</v>
       </c>
       <c r="J76" s="1">
-        <v>0.46666666666666662</v>
+        <v>0.75694444444444453</v>
       </c>
       <c r="K76" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
@@ -3427,34 +3462,34 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="C77" t="s">
         <v>13</v>
       </c>
       <c r="D77" t="s">
-        <v>65</v>
-      </c>
-      <c r="E77" t="s">
-        <v>66</v>
+        <v>14</v>
+      </c>
+      <c r="E77">
+        <v>12000</v>
       </c>
       <c r="F77" t="s">
         <v>16</v>
       </c>
       <c r="G77" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="H77" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I77" s="2">
-        <v>44524</v>
+        <v>44240</v>
       </c>
       <c r="J77" s="1">
-        <v>0.61388888888888882</v>
+        <v>0.38611111111111113</v>
       </c>
       <c r="K77" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.3">
@@ -3462,34 +3497,34 @@
         <v>11</v>
       </c>
       <c r="B78" t="s">
+        <v>36</v>
+      </c>
+      <c r="C78" t="s">
+        <v>13</v>
+      </c>
+      <c r="D78" t="s">
+        <v>14</v>
+      </c>
+      <c r="E78">
+        <v>12000</v>
+      </c>
+      <c r="F78" t="s">
+        <v>16</v>
+      </c>
+      <c r="G78" t="s">
+        <v>34</v>
+      </c>
+      <c r="H78" t="s">
+        <v>27</v>
+      </c>
+      <c r="I78" s="2">
+        <v>44241</v>
+      </c>
+      <c r="J78" s="1">
+        <v>0.52222222222222225</v>
+      </c>
+      <c r="K78" t="s">
         <v>23</v>
-      </c>
-      <c r="C78" t="s">
-        <v>13</v>
-      </c>
-      <c r="D78" t="s">
-        <v>24</v>
-      </c>
-      <c r="E78">
-        <v>2345</v>
-      </c>
-      <c r="F78" t="s">
-        <v>16</v>
-      </c>
-      <c r="G78" t="s">
-        <v>17</v>
-      </c>
-      <c r="H78" t="s">
-        <v>18</v>
-      </c>
-      <c r="I78" s="2">
-        <v>44549</v>
-      </c>
-      <c r="J78" s="1">
-        <v>0.42499999999999999</v>
-      </c>
-      <c r="K78" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
@@ -3497,34 +3532,34 @@
         <v>11</v>
       </c>
       <c r="B79" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="C79" t="s">
         <v>13</v>
       </c>
       <c r="D79" t="s">
-        <v>24</v>
-      </c>
-      <c r="E79" s="3">
-        <v>2345</v>
+        <v>39</v>
+      </c>
+      <c r="E79">
+        <v>12000</v>
       </c>
       <c r="F79" t="s">
         <v>16</v>
       </c>
       <c r="G79" t="s">
+        <v>17</v>
+      </c>
+      <c r="H79" t="s">
+        <v>18</v>
+      </c>
+      <c r="I79" s="2">
+        <v>44388</v>
+      </c>
+      <c r="J79" s="1">
+        <v>0.42430555555555555</v>
+      </c>
+      <c r="K79" t="s">
         <v>20</v>
-      </c>
-      <c r="H79" t="s">
-        <v>26</v>
-      </c>
-      <c r="I79" s="2">
-        <v>44550</v>
-      </c>
-      <c r="J79" s="1">
-        <v>0.56180555555555556</v>
-      </c>
-      <c r="K79" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
@@ -3532,34 +3567,34 @@
         <v>11</v>
       </c>
       <c r="B80" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="C80" t="s">
         <v>13</v>
       </c>
       <c r="D80" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="E80">
-        <v>2345</v>
+        <v>12000</v>
       </c>
       <c r="F80" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="G80" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="H80" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="I80" s="2">
-        <v>44550</v>
+        <v>44388</v>
       </c>
       <c r="J80" s="1">
-        <v>1</v>
+        <v>0.7319444444444444</v>
       </c>
       <c r="K80" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
@@ -3567,16 +3602,16 @@
         <v>11</v>
       </c>
       <c r="B81" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="C81" t="s">
         <v>13</v>
       </c>
       <c r="D81" t="s">
-        <v>55</v>
-      </c>
-      <c r="E81" t="s">
-        <v>56</v>
+        <v>44</v>
+      </c>
+      <c r="E81">
+        <v>30000</v>
       </c>
       <c r="F81" t="s">
         <v>16</v>
@@ -3585,16 +3620,16 @@
         <v>17</v>
       </c>
       <c r="H81" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I81" s="2">
-        <v>44571</v>
+        <v>44305</v>
       </c>
       <c r="J81" s="1">
-        <v>0.52986111111111112</v>
+        <v>0.55138888888888882</v>
       </c>
       <c r="K81" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
@@ -3602,34 +3637,34 @@
         <v>11</v>
       </c>
       <c r="B82" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="C82" t="s">
         <v>13</v>
       </c>
       <c r="D82" t="s">
-        <v>55</v>
-      </c>
-      <c r="E82" s="3" t="s">
-        <v>56</v>
+        <v>44</v>
+      </c>
+      <c r="E82">
+        <v>3000</v>
       </c>
       <c r="F82" t="s">
         <v>16</v>
       </c>
       <c r="G82" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H82" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I82" s="2">
-        <v>44572</v>
+        <v>44306</v>
       </c>
       <c r="J82" s="1">
-        <v>0.60555555555555551</v>
+        <v>0.52361111111111114</v>
       </c>
       <c r="K82" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
@@ -3637,34 +3672,34 @@
         <v>11</v>
       </c>
       <c r="B83" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C83" t="s">
         <v>13</v>
       </c>
       <c r="D83" t="s">
-        <v>55</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>56</v>
+        <v>47</v>
+      </c>
+      <c r="E83">
+        <v>12400</v>
       </c>
       <c r="F83" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="G83" t="s">
+        <v>17</v>
+      </c>
+      <c r="H83" t="s">
+        <v>18</v>
+      </c>
+      <c r="I83" s="2">
+        <v>44454</v>
+      </c>
+      <c r="J83" s="1">
+        <v>0.43263888888888885</v>
+      </c>
+      <c r="K83" t="s">
         <v>20</v>
-      </c>
-      <c r="H83" t="s">
-        <v>26</v>
-      </c>
-      <c r="I83" s="2">
-        <v>44572</v>
-      </c>
-      <c r="J83" s="1">
-        <v>0.76458333333333339</v>
-      </c>
-      <c r="K83" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
@@ -3672,34 +3707,34 @@
         <v>11</v>
       </c>
       <c r="B84" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C84" t="s">
         <v>13</v>
       </c>
       <c r="D84" t="s">
-        <v>57</v>
-      </c>
-      <c r="E84" t="s">
-        <v>58</v>
+        <v>47</v>
+      </c>
+      <c r="E84">
+        <v>12400</v>
       </c>
       <c r="F84" t="s">
         <v>16</v>
       </c>
       <c r="G84" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="H84" t="s">
-        <v>18</v>
-      </c>
-      <c r="I84" s="2" t="s">
-        <v>59</v>
+        <v>27</v>
+      </c>
+      <c r="I84" s="2">
+        <v>44455</v>
       </c>
       <c r="J84" s="1">
-        <v>0.65486111111111112</v>
+        <v>0.48819444444444443</v>
       </c>
       <c r="K84" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
@@ -3707,34 +3742,34 @@
         <v>11</v>
       </c>
       <c r="B85" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C85" t="s">
         <v>13</v>
       </c>
       <c r="D85" t="s">
-        <v>57</v>
-      </c>
-      <c r="E85" t="s">
-        <v>58</v>
+        <v>47</v>
+      </c>
+      <c r="E85">
+        <v>12400</v>
       </c>
       <c r="F85" t="s">
         <v>16</v>
       </c>
       <c r="G85" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="H85" t="s">
-        <v>26</v>
-      </c>
-      <c r="I85" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
+      </c>
+      <c r="I85" s="2">
+        <v>44455</v>
       </c>
       <c r="J85" s="1">
-        <v>0.72291666666666676</v>
+        <v>0.70972222222222225</v>
       </c>
       <c r="K85" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
@@ -3742,16 +3777,16 @@
         <v>11</v>
       </c>
       <c r="B86" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C86" t="s">
         <v>13</v>
       </c>
       <c r="D86" t="s">
-        <v>45</v>
-      </c>
-      <c r="E86" t="s">
-        <v>46</v>
+        <v>53</v>
+      </c>
+      <c r="E86">
+        <v>17430</v>
       </c>
       <c r="F86" t="s">
         <v>16</v>
@@ -3760,16 +3795,16 @@
         <v>17</v>
       </c>
       <c r="H86" t="s">
-        <v>18</v>
-      </c>
-      <c r="I86" s="2" t="s">
-        <v>47</v>
+        <v>27</v>
+      </c>
+      <c r="I86" s="2">
+        <v>44388</v>
       </c>
       <c r="J86" s="1">
-        <v>0.43263888888888885</v>
+        <v>0.52986111111111112</v>
       </c>
       <c r="K86" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
@@ -3777,34 +3812,34 @@
         <v>11</v>
       </c>
       <c r="B87" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C87" t="s">
         <v>13</v>
       </c>
       <c r="D87" t="s">
-        <v>45</v>
-      </c>
-      <c r="E87" t="s">
-        <v>46</v>
+        <v>53</v>
+      </c>
+      <c r="E87">
+        <v>17430</v>
       </c>
       <c r="F87" t="s">
         <v>16</v>
       </c>
       <c r="G87" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="H87" t="s">
-        <v>26</v>
-      </c>
-      <c r="I87" s="2" t="s">
-        <v>47</v>
+        <v>18</v>
+      </c>
+      <c r="I87" s="2">
+        <v>44389</v>
       </c>
       <c r="J87" s="1">
-        <v>0.48819444444444443</v>
+        <v>0.65347222222222223</v>
       </c>
       <c r="K87" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.3">
@@ -3812,34 +3847,34 @@
         <v>11</v>
       </c>
       <c r="B88" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C88" t="s">
         <v>13</v>
       </c>
       <c r="D88" t="s">
-        <v>45</v>
-      </c>
-      <c r="E88" t="s">
-        <v>46</v>
+        <v>53</v>
+      </c>
+      <c r="E88">
+        <v>17430</v>
       </c>
       <c r="F88" t="s">
         <v>16</v>
       </c>
       <c r="G88" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="H88" t="s">
-        <v>49</v>
-      </c>
-      <c r="I88" s="2" t="s">
-        <v>47</v>
+        <v>27</v>
+      </c>
+      <c r="I88" s="2">
+        <v>44390</v>
       </c>
       <c r="J88" s="1">
-        <v>0.70972222222222225</v>
+        <v>0.75694444444444453</v>
       </c>
       <c r="K88" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
@@ -3847,16 +3882,16 @@
         <v>11</v>
       </c>
       <c r="B89" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C89" t="s">
         <v>13</v>
       </c>
       <c r="D89" t="s">
-        <v>51</v>
-      </c>
-      <c r="E89" t="s">
-        <v>52</v>
+        <v>57</v>
+      </c>
+      <c r="E89">
+        <v>12000</v>
       </c>
       <c r="F89" t="s">
         <v>16</v>
@@ -3865,16 +3900,16 @@
         <v>17</v>
       </c>
       <c r="H89" t="s">
-        <v>26</v>
-      </c>
-      <c r="I89" s="2" t="s">
-        <v>53</v>
+        <v>27</v>
+      </c>
+      <c r="I89" s="2">
+        <v>44474</v>
       </c>
       <c r="J89" s="1">
         <v>0.52986111111111112</v>
       </c>
       <c r="K89" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
@@ -3882,16 +3917,16 @@
         <v>11</v>
       </c>
       <c r="B90" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C90" t="s">
         <v>13</v>
       </c>
       <c r="D90" t="s">
-        <v>51</v>
-      </c>
-      <c r="E90" s="3" t="s">
-        <v>52</v>
+        <v>57</v>
+      </c>
+      <c r="E90">
+        <v>12000</v>
       </c>
       <c r="F90" t="s">
         <v>16</v>
@@ -3902,14 +3937,14 @@
       <c r="H90" t="s">
         <v>18</v>
       </c>
-      <c r="I90" s="2" t="s">
-        <v>53</v>
+      <c r="I90" s="2">
+        <v>44474</v>
       </c>
       <c r="J90" s="1">
-        <v>0.65347222222222223</v>
+        <v>0.60555555555555551</v>
       </c>
       <c r="K90" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
@@ -3917,38 +3952,37 @@
         <v>11</v>
       </c>
       <c r="B91" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C91" t="s">
         <v>13</v>
       </c>
       <c r="D91" t="s">
-        <v>51</v>
-      </c>
-      <c r="E91" t="s">
-        <v>52</v>
+        <v>57</v>
+      </c>
+      <c r="E91">
+        <v>12000</v>
       </c>
       <c r="F91" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="G91" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H91" t="s">
-        <v>26</v>
-      </c>
-      <c r="I91" s="2" t="s">
-        <v>53</v>
+        <v>27</v>
+      </c>
+      <c r="I91" s="2">
+        <v>44476</v>
       </c>
       <c r="J91" s="1">
-        <v>0.75694444444444453</v>
+        <v>0.76458333333333339</v>
       </c>
       <c r="K91" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K91" xr:uid="{34CF87D3-5296-44C7-898D-811DB0F715A2}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
